--- a/AncillaryFiles/Wiggle_Summary_New.xlsx
+++ b/AncillaryFiles/Wiggle_Summary_New.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5762" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26762" uniqueCount="137">
   <si>
     <t>Subject</t>
   </si>
@@ -444,7 +444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="153">
+  <borders count="433">
     <border>
       <left/>
       <right/>
@@ -604,11 +604,291 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="433">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -762,6 +1042,286 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="406" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="413" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="420" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="427" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="432" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,55 +1334,55 @@
   <dimension ref="A1:J71"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.64453125" customWidth="true"/>
-    <col min="2" max="2" width="10.37890625" customWidth="true"/>
-    <col min="3" max="3" width="11.64453125" customWidth="true"/>
-    <col min="4" max="4" width="14.1796875" customWidth="true"/>
-    <col min="5" max="5" width="17.578125" customWidth="true"/>
-    <col min="6" max="6" width="15.578125" customWidth="true"/>
-    <col min="7" max="7" width="17.11328125" customWidth="true"/>
-    <col min="8" max="8" width="15.11328125" customWidth="true"/>
-    <col min="9" max="9" width="14.84375" customWidth="true"/>
-    <col min="10" max="10" width="12.84375" customWidth="true"/>
+    <col min="1" max="1" width="11.28515625" customWidth="true"/>
+    <col min="2" max="2" width="10.5703125" customWidth="true"/>
+    <col min="3" max="3" width="12" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="19.5703125" customWidth="true"/>
+    <col min="6" max="6" width="17.28515625" customWidth="true"/>
+    <col min="7" max="7" width="19" customWidth="true"/>
+    <col min="8" max="8" width="16.7109375" customWidth="true"/>
+    <col min="9" max="9" width="16.5703125" customWidth="true"/>
+    <col min="10" max="10" width="14.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="431" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="431" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="431" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="151" t="s">
+      <c r="D1" s="431" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="151" t="s">
+      <c r="E1" s="431" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="151" t="s">
+      <c r="F1" s="431" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="151" t="s">
+      <c r="G1" s="431" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="151" t="s">
+      <c r="H1" s="431" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="151" t="s">
+      <c r="I1" s="431" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="151" t="s">
+      <c r="J1" s="431" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="431" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="431" t="s">
         <v>3</v>
       </c>
       <c r="C2">
@@ -851,10 +1411,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="431" t="s">
         <v>13</v>
       </c>
       <c r="C3">
@@ -883,10 +1443,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="431" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="431" t="s">
         <v>15</v>
       </c>
       <c r="C4">
@@ -915,10 +1475,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="431" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="431" t="s">
         <v>17</v>
       </c>
       <c r="C5">
@@ -947,10 +1507,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="431" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="431" t="s">
         <v>19</v>
       </c>
       <c r="C6">
@@ -979,10 +1539,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="431" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="431" t="s">
         <v>21</v>
       </c>
       <c r="C7">
@@ -1011,10 +1571,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="431" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="431" t="s">
         <v>23</v>
       </c>
       <c r="C8">
@@ -1043,10 +1603,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="431" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="431" t="s">
         <v>25</v>
       </c>
       <c r="C9">
@@ -1075,10 +1635,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="431" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="431" t="s">
         <v>27</v>
       </c>
       <c r="C10">
@@ -1107,10 +1667,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="151" t="s">
+      <c r="A11" s="431" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="431" t="s">
         <v>29</v>
       </c>
       <c r="C11">
@@ -1139,10 +1699,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="431" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="431" t="s">
         <v>31</v>
       </c>
       <c r="C12">
@@ -1171,10 +1731,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="151" t="s">
+      <c r="A13" s="431" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="431" t="s">
         <v>33</v>
       </c>
       <c r="C13">
@@ -1203,10 +1763,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="431" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="431" t="s">
         <v>35</v>
       </c>
       <c r="C14">
@@ -1235,10 +1795,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="431" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="431" t="s">
         <v>35</v>
       </c>
       <c r="C15">
@@ -1267,10 +1827,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="431" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="431" t="s">
         <v>38</v>
       </c>
       <c r="C16">
@@ -1299,10 +1859,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="151" t="s">
+      <c r="A17" s="431" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="431" t="s">
         <v>40</v>
       </c>
       <c r="C17">
@@ -1331,10 +1891,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="151" t="s">
+      <c r="A18" s="431" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="431" t="s">
         <v>40</v>
       </c>
       <c r="C18">
@@ -1363,10 +1923,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="151" t="s">
+      <c r="A19" s="431" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="431" t="s">
         <v>43</v>
       </c>
       <c r="C19">
@@ -1395,10 +1955,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="151" t="s">
+      <c r="A20" s="431" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="151" t="s">
+      <c r="B20" s="431" t="s">
         <v>45</v>
       </c>
       <c r="C20">
@@ -1427,10 +1987,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="151" t="s">
+      <c r="A21" s="431" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="151" t="s">
+      <c r="B21" s="431" t="s">
         <v>47</v>
       </c>
       <c r="C21">
@@ -1459,10 +2019,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="151" t="s">
+      <c r="A22" s="431" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="151" t="s">
+      <c r="B22" s="431" t="s">
         <v>49</v>
       </c>
       <c r="C22">
@@ -1491,10 +2051,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="151" t="s">
+      <c r="A23" s="431" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="431" t="s">
         <v>51</v>
       </c>
       <c r="C23">
@@ -1523,10 +2083,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="151" t="s">
+      <c r="A24" s="431" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="151" t="s">
+      <c r="B24" s="431" t="s">
         <v>53</v>
       </c>
       <c r="C24">
@@ -1555,10 +2115,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="151" t="s">
+      <c r="A25" s="431" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="431" t="s">
         <v>55</v>
       </c>
       <c r="C25">
@@ -1587,10 +2147,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="151" t="s">
+      <c r="A26" s="431" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="431" t="s">
         <v>57</v>
       </c>
       <c r="C26">
@@ -1619,10 +2179,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="151" t="s">
+      <c r="A27" s="431" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="151" t="s">
+      <c r="B27" s="431" t="s">
         <v>59</v>
       </c>
       <c r="C27">
@@ -1651,10 +2211,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="151" t="s">
+      <c r="A28" s="431" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="151" t="s">
+      <c r="B28" s="431" t="s">
         <v>61</v>
       </c>
       <c r="C28">
@@ -1683,10 +2243,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="151" t="s">
+      <c r="A29" s="431" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="151" t="s">
+      <c r="B29" s="431" t="s">
         <v>63</v>
       </c>
       <c r="C29">
@@ -1715,10 +2275,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="151" t="s">
+      <c r="A30" s="431" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="151" t="s">
+      <c r="B30" s="431" t="s">
         <v>65</v>
       </c>
       <c r="C30">
@@ -1747,10 +2307,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="151" t="s">
+      <c r="A31" s="431" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="151" t="s">
+      <c r="B31" s="431" t="s">
         <v>67</v>
       </c>
       <c r="C31">
@@ -1779,10 +2339,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="151" t="s">
+      <c r="A32" s="431" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="431" t="s">
         <v>69</v>
       </c>
       <c r="C32">
@@ -1811,10 +2371,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="151" t="s">
+      <c r="A33" s="431" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="151" t="s">
+      <c r="B33" s="431" t="s">
         <v>71</v>
       </c>
       <c r="C33">
@@ -1843,10 +2403,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="151" t="s">
+      <c r="A34" s="431" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="151" t="s">
+      <c r="B34" s="431" t="s">
         <v>73</v>
       </c>
       <c r="C34">
@@ -1875,10 +2435,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="151" t="s">
+      <c r="A35" s="431" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="151" t="s">
+      <c r="B35" s="431" t="s">
         <v>75</v>
       </c>
       <c r="C35">
@@ -1907,10 +2467,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="151" t="s">
+      <c r="A36" s="431" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="151" t="s">
+      <c r="B36" s="431" t="s">
         <v>75</v>
       </c>
       <c r="C36">
@@ -1939,10 +2499,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="151" t="s">
+      <c r="A37" s="431" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="431" t="s">
         <v>78</v>
       </c>
       <c r="C37">
@@ -1971,10 +2531,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="151" t="s">
+      <c r="A38" s="431" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="151" t="s">
+      <c r="B38" s="431" t="s">
         <v>80</v>
       </c>
       <c r="C38">
@@ -2003,10 +2563,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="151" t="s">
+      <c r="A39" s="431" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="151" t="s">
+      <c r="B39" s="431" t="s">
         <v>82</v>
       </c>
       <c r="C39">
@@ -2035,10 +2595,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="151" t="s">
+      <c r="A40" s="431" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="151" t="s">
+      <c r="B40" s="431" t="s">
         <v>84</v>
       </c>
       <c r="C40">
@@ -2067,10 +2627,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="151" t="s">
+      <c r="A41" s="431" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="151" t="s">
+      <c r="B41" s="431" t="s">
         <v>86</v>
       </c>
       <c r="C41">
@@ -2099,10 +2659,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="151" t="s">
+      <c r="A42" s="431" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="151" t="s">
+      <c r="B42" s="431" t="s">
         <v>88</v>
       </c>
       <c r="C42">
@@ -2131,10 +2691,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="151" t="s">
+      <c r="A43" s="431" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="151" t="s">
+      <c r="B43" s="431" t="s">
         <v>90</v>
       </c>
       <c r="C43">
@@ -2163,10 +2723,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="151" t="s">
+      <c r="A44" s="431" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="151" t="s">
+      <c r="B44" s="431" t="s">
         <v>90</v>
       </c>
       <c r="C44">
@@ -2195,10 +2755,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="151" t="s">
+      <c r="A45" s="431" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="151" t="s">
+      <c r="B45" s="431" t="s">
         <v>93</v>
       </c>
       <c r="C45">
@@ -2227,10 +2787,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="151" t="s">
+      <c r="A46" s="431" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="151" t="s">
+      <c r="B46" s="431" t="s">
         <v>95</v>
       </c>
       <c r="C46">
@@ -2259,10 +2819,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="151" t="s">
+      <c r="A47" s="431" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="151" t="s">
+      <c r="B47" s="431" t="s">
         <v>97</v>
       </c>
       <c r="C47">
@@ -2291,10 +2851,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="151" t="s">
+      <c r="A48" s="431" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="151" t="s">
+      <c r="B48" s="431" t="s">
         <v>97</v>
       </c>
       <c r="C48">
@@ -2323,10 +2883,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="151" t="s">
+      <c r="A49" s="431" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="151" t="s">
+      <c r="B49" s="431" t="s">
         <v>100</v>
       </c>
       <c r="C49">
@@ -2355,10 +2915,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="151" t="s">
+      <c r="A50" s="431" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="151" t="s">
+      <c r="B50" s="431" t="s">
         <v>100</v>
       </c>
       <c r="C50">
@@ -2387,10 +2947,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="151" t="s">
+      <c r="A51" s="431" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="151" t="s">
+      <c r="B51" s="431" t="s">
         <v>103</v>
       </c>
       <c r="C51">
@@ -2419,10 +2979,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="151" t="s">
+      <c r="A52" s="431" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="151" t="s">
+      <c r="B52" s="431" t="s">
         <v>105</v>
       </c>
       <c r="C52">
@@ -2451,10 +3011,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="151" t="s">
+      <c r="A53" s="431" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="151" t="s">
+      <c r="B53" s="431" t="s">
         <v>105</v>
       </c>
       <c r="C53">
@@ -2483,10 +3043,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="151" t="s">
+      <c r="A54" s="431" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="151" t="s">
+      <c r="B54" s="431" t="s">
         <v>108</v>
       </c>
       <c r="C54">
@@ -2515,10 +3075,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="151" t="s">
+      <c r="A55" s="431" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="151" t="s">
+      <c r="B55" s="431" t="s">
         <v>110</v>
       </c>
       <c r="C55">
@@ -2547,10 +3107,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="151" t="s">
+      <c r="A56" s="431" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="151" t="s">
+      <c r="B56" s="431" t="s">
         <v>112</v>
       </c>
       <c r="C56">
@@ -2579,10 +3139,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="151" t="s">
+      <c r="A57" s="431" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="431" t="s">
         <v>112</v>
       </c>
       <c r="C57">
@@ -2611,10 +3171,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="151" t="s">
+      <c r="A58" s="431" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="151" t="s">
+      <c r="B58" s="431" t="s">
         <v>115</v>
       </c>
       <c r="C58">
@@ -2643,10 +3203,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="151" t="s">
+      <c r="A59" s="431" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="151" t="s">
+      <c r="B59" s="431" t="s">
         <v>117</v>
       </c>
       <c r="C59">
@@ -2675,10 +3235,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="151" t="s">
+      <c r="A60" s="431" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="151" t="s">
+      <c r="B60" s="431" t="s">
         <v>117</v>
       </c>
       <c r="C60">
@@ -2707,10 +3267,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="151" t="s">
+      <c r="A61" s="431" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="151" t="s">
+      <c r="B61" s="431" t="s">
         <v>120</v>
       </c>
       <c r="C61">
@@ -2739,10 +3299,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="151" t="s">
+      <c r="A62" s="431" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="151" t="s">
+      <c r="B62" s="431" t="s">
         <v>122</v>
       </c>
       <c r="C62">
@@ -2771,10 +3331,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="151" t="s">
+      <c r="A63" s="431" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="151" t="s">
+      <c r="B63" s="431" t="s">
         <v>124</v>
       </c>
       <c r="C63">
@@ -2803,10 +3363,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="151" t="s">
+      <c r="A64" s="431" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="151" t="s">
+      <c r="B64" s="431" t="s">
         <v>124</v>
       </c>
       <c r="C64">
@@ -2835,10 +3395,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="151" t="s">
+      <c r="A65" s="431" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="151" t="s">
+      <c r="B65" s="431" t="s">
         <v>127</v>
       </c>
       <c r="C65">
@@ -2867,10 +3427,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="151" t="s">
+      <c r="A66" s="431" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="151" t="s">
+      <c r="B66" s="431" t="s">
         <v>129</v>
       </c>
       <c r="C66">
@@ -2899,10 +3459,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="151" t="s">
+      <c r="A67" s="431" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="151" t="s">
+      <c r="B67" s="431" t="s">
         <v>129</v>
       </c>
       <c r="C67">
@@ -2931,10 +3491,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="151" t="s">
+      <c r="A68" s="431" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="151" t="s">
+      <c r="B68" s="431" t="s">
         <v>132</v>
       </c>
       <c r="C68">
@@ -2963,10 +3523,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="151" t="s">
+      <c r="A69" s="431" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="151" t="s">
+      <c r="B69" s="431" t="s">
         <v>134</v>
       </c>
       <c r="C69">
@@ -2995,10 +3555,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="151" t="s">
+      <c r="A70" s="431" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="151" t="s">
+      <c r="B70" s="431" t="s">
         <v>3</v>
       </c>
       <c r="C70">
@@ -3027,10 +3587,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="151" t="s">
+      <c r="A71" s="431" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="151" t="s">
+      <c r="B71" s="431" t="s">
         <v>3</v>
       </c>
       <c r="C71">

--- a/AncillaryFiles/Wiggle_Summary_New.xlsx
+++ b/AncillaryFiles/Wiggle_Summary_New.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26762" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28154" uniqueCount="147">
   <si>
     <t>Subject</t>
   </si>
@@ -424,6 +424,36 @@
   </si>
   <si>
     <t>Xe-042</t>
+  </si>
+  <si>
+    <t>Xe-045</t>
+  </si>
+  <si>
+    <t>2022-10-18</t>
+  </si>
+  <si>
+    <t>Xe-046</t>
+  </si>
+  <si>
+    <t>2022-10-25</t>
+  </si>
+  <si>
+    <t>CXe-034_02</t>
+  </si>
+  <si>
+    <t>2022-10-26</t>
+  </si>
+  <si>
+    <t>Xe-047</t>
+  </si>
+  <si>
+    <t>2022-10-28</t>
+  </si>
+  <si>
+    <t>Xe-049</t>
+  </si>
+  <si>
+    <t>2022-11-15</t>
   </si>
 </sst>
 </file>
@@ -444,7 +474,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="433">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -884,11 +914,29 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="433">
+  <cellXfs count="451">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1322,6 +1370,24 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="430" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="431" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="434" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="441" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="448" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="450" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1331,7 +1397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J76"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="true"/>
@@ -1347,42 +1413,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="431" t="s">
+      <c r="A1" s="449" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="431" t="s">
+      <c r="B1" s="449" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="431" t="s">
+      <c r="C1" s="449" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="431" t="s">
+      <c r="D1" s="449" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="431" t="s">
+      <c r="E1" s="449" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="431" t="s">
+      <c r="F1" s="449" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="431" t="s">
+      <c r="G1" s="449" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="431" t="s">
+      <c r="H1" s="449" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="431" t="s">
+      <c r="I1" s="449" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="431" t="s">
+      <c r="J1" s="449" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="431" t="s">
+      <c r="A2" s="449" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="431" t="s">
+      <c r="B2" s="449" t="s">
         <v>3</v>
       </c>
       <c r="C2">
@@ -1411,10 +1477,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="431" t="s">
+      <c r="A3" s="449" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="431" t="s">
+      <c r="B3" s="449" t="s">
         <v>13</v>
       </c>
       <c r="C3">
@@ -1443,10 +1509,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="431" t="s">
+      <c r="A4" s="449" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="431" t="s">
+      <c r="B4" s="449" t="s">
         <v>15</v>
       </c>
       <c r="C4">
@@ -1475,10 +1541,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="431" t="s">
+      <c r="A5" s="449" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="431" t="s">
+      <c r="B5" s="449" t="s">
         <v>17</v>
       </c>
       <c r="C5">
@@ -1507,10 +1573,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="431" t="s">
+      <c r="A6" s="449" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="431" t="s">
+      <c r="B6" s="449" t="s">
         <v>19</v>
       </c>
       <c r="C6">
@@ -1539,10 +1605,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="431" t="s">
+      <c r="A7" s="449" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="431" t="s">
+      <c r="B7" s="449" t="s">
         <v>21</v>
       </c>
       <c r="C7">
@@ -1571,10 +1637,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="431" t="s">
+      <c r="A8" s="449" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="431" t="s">
+      <c r="B8" s="449" t="s">
         <v>23</v>
       </c>
       <c r="C8">
@@ -1603,10 +1669,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="431" t="s">
+      <c r="A9" s="449" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="431" t="s">
+      <c r="B9" s="449" t="s">
         <v>25</v>
       </c>
       <c r="C9">
@@ -1635,10 +1701,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="431" t="s">
+      <c r="A10" s="449" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="431" t="s">
+      <c r="B10" s="449" t="s">
         <v>27</v>
       </c>
       <c r="C10">
@@ -1667,10 +1733,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="431" t="s">
+      <c r="A11" s="449" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="431" t="s">
+      <c r="B11" s="449" t="s">
         <v>29</v>
       </c>
       <c r="C11">
@@ -1699,10 +1765,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="431" t="s">
+      <c r="A12" s="449" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="431" t="s">
+      <c r="B12" s="449" t="s">
         <v>31</v>
       </c>
       <c r="C12">
@@ -1731,10 +1797,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="431" t="s">
+      <c r="A13" s="449" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="431" t="s">
+      <c r="B13" s="449" t="s">
         <v>33</v>
       </c>
       <c r="C13">
@@ -1763,10 +1829,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="431" t="s">
+      <c r="A14" s="449" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="431" t="s">
+      <c r="B14" s="449" t="s">
         <v>35</v>
       </c>
       <c r="C14">
@@ -1795,10 +1861,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="431" t="s">
+      <c r="A15" s="449" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="431" t="s">
+      <c r="B15" s="449" t="s">
         <v>35</v>
       </c>
       <c r="C15">
@@ -1827,10 +1893,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="431" t="s">
+      <c r="A16" s="449" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="431" t="s">
+      <c r="B16" s="449" t="s">
         <v>38</v>
       </c>
       <c r="C16">
@@ -1859,10 +1925,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="431" t="s">
+      <c r="A17" s="449" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="431" t="s">
+      <c r="B17" s="449" t="s">
         <v>40</v>
       </c>
       <c r="C17">
@@ -1891,10 +1957,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="431" t="s">
+      <c r="A18" s="449" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="431" t="s">
+      <c r="B18" s="449" t="s">
         <v>40</v>
       </c>
       <c r="C18">
@@ -1923,10 +1989,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="431" t="s">
+      <c r="A19" s="449" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="431" t="s">
+      <c r="B19" s="449" t="s">
         <v>43</v>
       </c>
       <c r="C19">
@@ -1955,10 +2021,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="431" t="s">
+      <c r="A20" s="449" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="431" t="s">
+      <c r="B20" s="449" t="s">
         <v>45</v>
       </c>
       <c r="C20">
@@ -1987,10 +2053,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="431" t="s">
+      <c r="A21" s="449" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="431" t="s">
+      <c r="B21" s="449" t="s">
         <v>47</v>
       </c>
       <c r="C21">
@@ -2019,10 +2085,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="431" t="s">
+      <c r="A22" s="449" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="431" t="s">
+      <c r="B22" s="449" t="s">
         <v>49</v>
       </c>
       <c r="C22">
@@ -2051,10 +2117,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="431" t="s">
+      <c r="A23" s="449" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="431" t="s">
+      <c r="B23" s="449" t="s">
         <v>51</v>
       </c>
       <c r="C23">
@@ -2083,10 +2149,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="431" t="s">
+      <c r="A24" s="449" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="431" t="s">
+      <c r="B24" s="449" t="s">
         <v>53</v>
       </c>
       <c r="C24">
@@ -2115,10 +2181,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="431" t="s">
+      <c r="A25" s="449" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="431" t="s">
+      <c r="B25" s="449" t="s">
         <v>55</v>
       </c>
       <c r="C25">
@@ -2147,10 +2213,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="431" t="s">
+      <c r="A26" s="449" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="431" t="s">
+      <c r="B26" s="449" t="s">
         <v>57</v>
       </c>
       <c r="C26">
@@ -2179,10 +2245,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="431" t="s">
+      <c r="A27" s="449" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="431" t="s">
+      <c r="B27" s="449" t="s">
         <v>59</v>
       </c>
       <c r="C27">
@@ -2211,10 +2277,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="431" t="s">
+      <c r="A28" s="449" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="431" t="s">
+      <c r="B28" s="449" t="s">
         <v>61</v>
       </c>
       <c r="C28">
@@ -2243,10 +2309,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="431" t="s">
+      <c r="A29" s="449" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="431" t="s">
+      <c r="B29" s="449" t="s">
         <v>63</v>
       </c>
       <c r="C29">
@@ -2275,10 +2341,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="431" t="s">
+      <c r="A30" s="449" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="431" t="s">
+      <c r="B30" s="449" t="s">
         <v>65</v>
       </c>
       <c r="C30">
@@ -2307,10 +2373,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="431" t="s">
+      <c r="A31" s="449" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="431" t="s">
+      <c r="B31" s="449" t="s">
         <v>67</v>
       </c>
       <c r="C31">
@@ -2339,10 +2405,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="431" t="s">
+      <c r="A32" s="449" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="431" t="s">
+      <c r="B32" s="449" t="s">
         <v>69</v>
       </c>
       <c r="C32">
@@ -2371,10 +2437,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="431" t="s">
+      <c r="A33" s="449" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="431" t="s">
+      <c r="B33" s="449" t="s">
         <v>71</v>
       </c>
       <c r="C33">
@@ -2403,10 +2469,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="431" t="s">
+      <c r="A34" s="449" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="431" t="s">
+      <c r="B34" s="449" t="s">
         <v>73</v>
       </c>
       <c r="C34">
@@ -2435,10 +2501,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="431" t="s">
+      <c r="A35" s="449" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="431" t="s">
+      <c r="B35" s="449" t="s">
         <v>75</v>
       </c>
       <c r="C35">
@@ -2467,10 +2533,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="431" t="s">
+      <c r="A36" s="449" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="431" t="s">
+      <c r="B36" s="449" t="s">
         <v>75</v>
       </c>
       <c r="C36">
@@ -2499,10 +2565,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="431" t="s">
+      <c r="A37" s="449" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="431" t="s">
+      <c r="B37" s="449" t="s">
         <v>78</v>
       </c>
       <c r="C37">
@@ -2531,10 +2597,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="431" t="s">
+      <c r="A38" s="449" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="431" t="s">
+      <c r="B38" s="449" t="s">
         <v>80</v>
       </c>
       <c r="C38">
@@ -2563,10 +2629,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="431" t="s">
+      <c r="A39" s="449" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="431" t="s">
+      <c r="B39" s="449" t="s">
         <v>82</v>
       </c>
       <c r="C39">
@@ -2595,10 +2661,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="431" t="s">
+      <c r="A40" s="449" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="431" t="s">
+      <c r="B40" s="449" t="s">
         <v>84</v>
       </c>
       <c r="C40">
@@ -2627,10 +2693,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="431" t="s">
+      <c r="A41" s="449" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="431" t="s">
+      <c r="B41" s="449" t="s">
         <v>86</v>
       </c>
       <c r="C41">
@@ -2659,10 +2725,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="431" t="s">
+      <c r="A42" s="449" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="431" t="s">
+      <c r="B42" s="449" t="s">
         <v>88</v>
       </c>
       <c r="C42">
@@ -2691,10 +2757,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="431" t="s">
+      <c r="A43" s="449" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="431" t="s">
+      <c r="B43" s="449" t="s">
         <v>90</v>
       </c>
       <c r="C43">
@@ -2723,10 +2789,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="431" t="s">
+      <c r="A44" s="449" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="431" t="s">
+      <c r="B44" s="449" t="s">
         <v>90</v>
       </c>
       <c r="C44">
@@ -2755,10 +2821,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="431" t="s">
+      <c r="A45" s="449" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="431" t="s">
+      <c r="B45" s="449" t="s">
         <v>93</v>
       </c>
       <c r="C45">
@@ -2787,10 +2853,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="431" t="s">
+      <c r="A46" s="449" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="431" t="s">
+      <c r="B46" s="449" t="s">
         <v>95</v>
       </c>
       <c r="C46">
@@ -2819,10 +2885,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="431" t="s">
+      <c r="A47" s="449" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="431" t="s">
+      <c r="B47" s="449" t="s">
         <v>97</v>
       </c>
       <c r="C47">
@@ -2851,10 +2917,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="431" t="s">
+      <c r="A48" s="449" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="431" t="s">
+      <c r="B48" s="449" t="s">
         <v>97</v>
       </c>
       <c r="C48">
@@ -2883,10 +2949,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="431" t="s">
+      <c r="A49" s="449" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="431" t="s">
+      <c r="B49" s="449" t="s">
         <v>100</v>
       </c>
       <c r="C49">
@@ -2915,10 +2981,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="431" t="s">
+      <c r="A50" s="449" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="431" t="s">
+      <c r="B50" s="449" t="s">
         <v>100</v>
       </c>
       <c r="C50">
@@ -2947,10 +3013,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="431" t="s">
+      <c r="A51" s="449" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="431" t="s">
+      <c r="B51" s="449" t="s">
         <v>103</v>
       </c>
       <c r="C51">
@@ -2979,10 +3045,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="431" t="s">
+      <c r="A52" s="449" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="431" t="s">
+      <c r="B52" s="449" t="s">
         <v>105</v>
       </c>
       <c r="C52">
@@ -3011,10 +3077,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="431" t="s">
+      <c r="A53" s="449" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="431" t="s">
+      <c r="B53" s="449" t="s">
         <v>105</v>
       </c>
       <c r="C53">
@@ -3043,10 +3109,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="431" t="s">
+      <c r="A54" s="449" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="431" t="s">
+      <c r="B54" s="449" t="s">
         <v>108</v>
       </c>
       <c r="C54">
@@ -3075,10 +3141,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="431" t="s">
+      <c r="A55" s="449" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="431" t="s">
+      <c r="B55" s="449" t="s">
         <v>110</v>
       </c>
       <c r="C55">
@@ -3107,10 +3173,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="431" t="s">
+      <c r="A56" s="449" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="431" t="s">
+      <c r="B56" s="449" t="s">
         <v>112</v>
       </c>
       <c r="C56">
@@ -3139,10 +3205,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="431" t="s">
+      <c r="A57" s="449" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="431" t="s">
+      <c r="B57" s="449" t="s">
         <v>112</v>
       </c>
       <c r="C57">
@@ -3171,10 +3237,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="431" t="s">
+      <c r="A58" s="449" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="431" t="s">
+      <c r="B58" s="449" t="s">
         <v>115</v>
       </c>
       <c r="C58">
@@ -3203,10 +3269,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="431" t="s">
+      <c r="A59" s="449" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="431" t="s">
+      <c r="B59" s="449" t="s">
         <v>117</v>
       </c>
       <c r="C59">
@@ -3235,10 +3301,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="431" t="s">
+      <c r="A60" s="449" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="431" t="s">
+      <c r="B60" s="449" t="s">
         <v>117</v>
       </c>
       <c r="C60">
@@ -3267,10 +3333,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="431" t="s">
+      <c r="A61" s="449" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="431" t="s">
+      <c r="B61" s="449" t="s">
         <v>120</v>
       </c>
       <c r="C61">
@@ -3299,10 +3365,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="431" t="s">
+      <c r="A62" s="449" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="431" t="s">
+      <c r="B62" s="449" t="s">
         <v>122</v>
       </c>
       <c r="C62">
@@ -3331,10 +3397,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="431" t="s">
+      <c r="A63" s="449" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="431" t="s">
+      <c r="B63" s="449" t="s">
         <v>124</v>
       </c>
       <c r="C63">
@@ -3363,10 +3429,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="431" t="s">
+      <c r="A64" s="449" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="431" t="s">
+      <c r="B64" s="449" t="s">
         <v>124</v>
       </c>
       <c r="C64">
@@ -3395,10 +3461,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="431" t="s">
+      <c r="A65" s="449" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="431" t="s">
+      <c r="B65" s="449" t="s">
         <v>127</v>
       </c>
       <c r="C65">
@@ -3427,10 +3493,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="431" t="s">
+      <c r="A66" s="449" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="431" t="s">
+      <c r="B66" s="449" t="s">
         <v>129</v>
       </c>
       <c r="C66">
@@ -3459,10 +3525,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="431" t="s">
+      <c r="A67" s="449" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="431" t="s">
+      <c r="B67" s="449" t="s">
         <v>129</v>
       </c>
       <c r="C67">
@@ -3491,10 +3557,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="431" t="s">
+      <c r="A68" s="449" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="431" t="s">
+      <c r="B68" s="449" t="s">
         <v>132</v>
       </c>
       <c r="C68">
@@ -3523,10 +3589,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="431" t="s">
+      <c r="A69" s="449" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="431" t="s">
+      <c r="B69" s="449" t="s">
         <v>134</v>
       </c>
       <c r="C69">
@@ -3555,10 +3621,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="431" t="s">
+      <c r="A70" s="449" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="431" t="s">
+      <c r="B70" s="449" t="s">
         <v>3</v>
       </c>
       <c r="C70">
@@ -3587,10 +3653,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="431" t="s">
+      <c r="A71" s="449" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="431" t="s">
+      <c r="B71" s="449" t="s">
         <v>3</v>
       </c>
       <c r="C71">
@@ -3616,6 +3682,166 @@
       </c>
       <c r="J71">
         <v>78.624251630377984</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="449" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" s="449" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72">
+        <v>20.081055029979726</v>
+      </c>
+      <c r="D72">
+        <v>2.470453370486887</v>
+      </c>
+      <c r="E72">
+        <v>10.804247402092216</v>
+      </c>
+      <c r="F72">
+        <v>11.402027793084875</v>
+      </c>
+      <c r="G72">
+        <v>28.73901262061165</v>
+      </c>
+      <c r="H72">
+        <v>7.8208667079499978</v>
+      </c>
+      <c r="I72">
+        <v>-8.0706290398864891</v>
+      </c>
+      <c r="J72">
+        <v>69.703015039607394</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="449" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="449" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73">
+        <v>29.205383642611686</v>
+      </c>
+      <c r="D73">
+        <v>3.9481056290724164</v>
+      </c>
+      <c r="E73">
+        <v>10.725550795430175</v>
+      </c>
+      <c r="F73">
+        <v>25.13346345312101</v>
+      </c>
+      <c r="G73">
+        <v>49.506222902205359</v>
+      </c>
+      <c r="H73">
+        <v>14.519201587419666</v>
+      </c>
+      <c r="I73">
+        <v>-27.630345558056401</v>
+      </c>
+      <c r="J73">
+        <v>89.606100060256111</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="449" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="449" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74">
+        <v>25.4415321946788</v>
+      </c>
+      <c r="D74">
+        <v>2.5385576167975472</v>
+      </c>
+      <c r="E74">
+        <v>11.479403893040523</v>
+      </c>
+      <c r="F74">
+        <v>21.390489786929738</v>
+      </c>
+      <c r="G74">
+        <v>43.923702353244522</v>
+      </c>
+      <c r="H74">
+        <v>11.950799738356167</v>
+      </c>
+      <c r="I74">
+        <v>-26.144092219020173</v>
+      </c>
+      <c r="J74">
+        <v>86.8031956420824</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="449" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="449" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75">
+        <v>19.577181064696159</v>
+      </c>
+      <c r="D75">
+        <v>6.3733082612309548</v>
+      </c>
+      <c r="E75">
+        <v>17.789240690974925</v>
+      </c>
+      <c r="F75">
+        <v>37.678316016748106</v>
+      </c>
+      <c r="G75">
+        <v>78.892740993685067</v>
+      </c>
+      <c r="H75">
+        <v>24.429123861534368</v>
+      </c>
+      <c r="I75">
+        <v>79.383768913342507</v>
+      </c>
+      <c r="J75">
+        <v>99.346451467464817</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="449" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="449" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76">
+        <v>17.681909447624033</v>
+      </c>
+      <c r="D76">
+        <v>2.3430361284839067</v>
+      </c>
+      <c r="E76">
+        <v>8.5570178407657735</v>
+      </c>
+      <c r="F76">
+        <v>17.507358809185398</v>
+      </c>
+      <c r="G76">
+        <v>34.089682984029444</v>
+      </c>
+      <c r="H76">
+        <v>10.620906237127736</v>
+      </c>
+      <c r="I76">
+        <v>73.325575834860928</v>
+      </c>
+      <c r="J76">
+        <v>83.904632342010061</v>
       </c>
     </row>
   </sheetData>

--- a/AncillaryFiles/Wiggle_Summary_New.xlsx
+++ b/AncillaryFiles/Wiggle_Summary_New.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kumed-my.sharepoint.com/personal/pniedbalski_kumc_edu/Documents/Documents/GitHub/All_in_one_Xenon_Analysis/AncillaryFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_334EE9374E73322C7787D384F3012D16118BDE61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{932C20F9-65F6-4144-A0F1-27E1DC3750A0}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="1455" yWindow="1643" windowWidth="14370" windowHeight="11250"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28154" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18694" uniqueCount="191">
   <si>
     <t>Subject</t>
   </si>
@@ -454,13 +461,145 @@
   </si>
   <si>
     <t>2022-11-15</t>
+  </si>
+  <si>
+    <t>Xe-044</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>CXe-020_02</t>
+  </si>
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>CXe-041</t>
+  </si>
+  <si>
+    <t>2022-11-09</t>
+  </si>
+  <si>
+    <t>CXe-038_02</t>
+  </si>
+  <si>
+    <t>2022-12-01</t>
+  </si>
+  <si>
+    <t>CXe-024</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>CXe-015_02</t>
+  </si>
+  <si>
+    <t>2022-08-10</t>
+  </si>
+  <si>
+    <t>CXe-016_02</t>
+  </si>
+  <si>
+    <t>2022-09-02</t>
+  </si>
+  <si>
+    <t>CXe-017_02</t>
+  </si>
+  <si>
+    <t>2022-09-07</t>
+  </si>
+  <si>
+    <t>CXe-013_02</t>
+  </si>
+  <si>
+    <t>2022-10-13</t>
+  </si>
+  <si>
+    <t>CXe-036_02</t>
+  </si>
+  <si>
+    <t>2022-12-13</t>
+  </si>
+  <si>
+    <t>201-08</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>2022-09-22</t>
+  </si>
+  <si>
+    <t>201-10</t>
+  </si>
+  <si>
+    <t>2022-10-11</t>
+  </si>
+  <si>
+    <t>201-11</t>
+  </si>
+  <si>
+    <t>2022-11-18</t>
+  </si>
+  <si>
+    <t>201-12</t>
+  </si>
+  <si>
+    <t>2022-11-21</t>
+  </si>
+  <si>
+    <t>201-01</t>
+  </si>
+  <si>
+    <t>201-02</t>
+  </si>
+  <si>
+    <t>201-03</t>
+  </si>
+  <si>
+    <t>2022-07-14</t>
+  </si>
+  <si>
+    <t>2022-08-30</t>
+  </si>
+  <si>
+    <t>2022-09-09</t>
+  </si>
+  <si>
+    <t>2022-09-15</t>
+  </si>
+  <si>
+    <t>Xe-048</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>Xe-054</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>Xe-052</t>
+  </si>
+  <si>
+    <t>2023-01-11</t>
+  </si>
+  <si>
+    <t>Xe-051</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -474,7 +613,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="451">
+  <borders count="204">
     <border>
       <left/>
       <right/>
@@ -482,254 +621,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border/>
     <border/>
     <border/>
@@ -936,469 +834,532 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="451">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="261" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="262" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="263" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="264" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="265" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="266" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="267" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="268" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="269" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="270" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="271" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="272" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="273" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="274" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="275" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="276" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="277" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="278" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="279" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="280" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="281" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="282" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="283" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="284" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="285" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="286" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="287" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="288" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="289" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="290" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="291" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="292" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="293" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="294" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="295" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="296" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="297" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="298" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="299" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="300" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="301" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="302" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="303" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="304" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="305" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="306" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="307" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="308" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="309" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="310" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="311" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="312" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="313" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="314" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="315" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="316" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="317" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="318" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="319" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="320" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="321" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="322" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="323" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="324" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="325" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="326" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="327" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="328" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="329" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="330" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="331" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="332" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="333" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="334" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="335" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="336" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="337" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="338" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="339" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="340" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="341" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="342" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="343" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="344" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="345" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="346" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="347" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="348" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="349" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="350" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="351" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="352" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="353" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="354" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="355" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="356" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="357" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="358" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="359" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="360" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="361" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="362" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="363" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="364" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="365" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="366" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="367" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="368" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="369" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="370" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="371" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="372" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="373" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="374" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="375" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="376" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="377" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="378" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="379" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="380" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="381" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="382" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="383" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="384" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="385" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="386" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="387" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="388" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="389" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="390" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="391" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="392" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="393" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="394" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="395" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="396" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="397" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="398" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="399" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="400" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="401" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="402" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="403" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="404" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="405" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="406" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="407" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="408" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="409" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="410" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="411" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="412" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="413" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="414" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="415" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="416" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="417" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="418" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="419" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="420" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="421" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="422" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="423" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="424" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="425" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="426" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="427" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="428" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="429" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="430" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="431" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="432" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="433" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="434" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="435" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="436" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="437" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="438" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="439" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="440" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="441" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="442" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="443" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="444" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="445" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="446" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="447" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="448" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="449" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J76"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J103"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection sqref="A1:XFD85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="true"/>
     <col min="2" max="2" width="10.5703125" customWidth="true"/>
@@ -1412,1995 +1373,1995 @@
     <col min="10" max="10" width="14.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="449" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="449" t="s">
+      <c r="B1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="449" t="s">
+      <c r="C1" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="449" t="s">
+      <c r="D1" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="449" t="s">
+      <c r="E1" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="449" t="s">
+      <c r="F1" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="449" t="s">
+      <c r="G1" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="449" t="s">
+      <c r="H1" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="449" t="s">
+      <c r="I1" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="449" t="s">
+      <c r="J1" s="202" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="449" t="s">
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="449" t="s">
+      <c r="B2" s="202" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>11.290330542046984</v>
+        <v>5.4828626454361711</v>
       </c>
       <c r="D2">
-        <v>1.5653033822597673</v>
+        <v>0.92773400964030883</v>
       </c>
       <c r="E2">
-        <v>2.8919498275709561</v>
+        <v>5.1453900343719363</v>
       </c>
       <c r="F2">
-        <v>12.881395759211795</v>
+        <v>2.345043065908067</v>
       </c>
       <c r="G2">
-        <v>24.92463377076848</v>
+        <v>10.363801912594859</v>
       </c>
       <c r="H2">
-        <v>6.7193133971612715</v>
+        <v>3.3538364970567791</v>
       </c>
       <c r="I2">
-        <v>-19.590942293644996</v>
+        <v>7.1045092838196284</v>
       </c>
       <c r="J2">
-        <v>82.497233963757466</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="449" t="s">
+        <v>42.654343463927461</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="449" t="s">
+      <c r="B3" s="202" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>9.8387958154847066</v>
+        <v>5.4317513288711812</v>
       </c>
       <c r="D3">
-        <v>0.97198512667240478</v>
+        <v>0.41997237363467682</v>
       </c>
       <c r="E3">
-        <v>4.8871858052365615</v>
+        <v>7.3769674144154687</v>
       </c>
       <c r="F3">
-        <v>11.848689453513222</v>
+        <v>3.9338351351046685</v>
       </c>
       <c r="G3">
-        <v>29.138488914907533</v>
+        <v>12.330558165164598</v>
       </c>
       <c r="H3">
-        <v>8.1720169712883379</v>
+        <v>2.8276799833794279</v>
       </c>
       <c r="I3">
-        <v>-35.239069974413169</v>
+        <v>-32.045300113250285</v>
       </c>
       <c r="J3">
-        <v>94.797868511620464</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="449" t="s">
+        <v>44.379419659756756</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="449" t="s">
+      <c r="B4" s="202" t="s">
         <v>15</v>
       </c>
       <c r="C4">
-        <v>23.9681803642993</v>
+        <v>14.05276652821045</v>
       </c>
       <c r="D4">
-        <v>3.2888924933326726</v>
+        <v>1.88013678556752</v>
       </c>
       <c r="E4">
-        <v>17.734875087316407</v>
+        <v>24.09704654164193</v>
       </c>
       <c r="F4">
-        <v>28.754708775525909</v>
+        <v>11.058921645355369</v>
       </c>
       <c r="G4">
-        <v>72.258098236389444</v>
+        <v>32.647334259487984</v>
       </c>
       <c r="H4">
-        <v>20.57334664163605</v>
+        <v>8.9545124155803144</v>
       </c>
       <c r="I4">
-        <v>-19.162509845103703</v>
+        <v>-21.941758881770529</v>
       </c>
       <c r="J4">
-        <v>85.992022379595099</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="449" t="s">
+        <v>52.848198607394878</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="449" t="s">
+      <c r="B5" s="202" t="s">
         <v>17</v>
       </c>
       <c r="C5">
-        <v>16.962991581565483</v>
+        <v>15.884777497577138</v>
       </c>
       <c r="D5">
-        <v>1.6426843244246567</v>
+        <v>1.5174712787648246</v>
       </c>
       <c r="E5">
-        <v>5.6191889039476166</v>
+        <v>4.8801782475228697</v>
       </c>
       <c r="F5">
-        <v>13.896529474015843</v>
+        <v>12.622810739459112</v>
       </c>
       <c r="G5">
-        <v>31.30083781746912</v>
+        <v>28.395119088793383</v>
       </c>
       <c r="H5">
-        <v>8.6728979472936611</v>
+        <v>7.7637723035590112</v>
       </c>
       <c r="I5">
-        <v>-32.347174523883858</v>
+        <v>-35.91883360889824</v>
       </c>
       <c r="J5">
-        <v>96.195166469656812</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="449" t="s">
+        <v>95.888167230766513</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="449" t="s">
+      <c r="B6" s="202" t="s">
         <v>19</v>
       </c>
       <c r="C6">
-        <v>18.206724282233566</v>
+        <v>9.0157016232198508</v>
       </c>
       <c r="D6">
-        <v>2.1557331967116378</v>
+        <v>1.306081526676466</v>
       </c>
       <c r="E6">
-        <v>10.049834943087905</v>
+        <v>13.68894515068955</v>
       </c>
       <c r="F6">
-        <v>12.886787884069989</v>
+        <v>6.2736247614412219</v>
       </c>
       <c r="G6">
-        <v>28.866251436906378</v>
+        <v>15.326600858215093</v>
       </c>
       <c r="H6">
-        <v>8.103578012342906</v>
+        <v>5.4660527223639255</v>
       </c>
       <c r="I6">
-        <v>39.899130434782606</v>
+        <v>15.673043478260869</v>
       </c>
       <c r="J6">
-        <v>75.291677292072535</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="449" t="s">
+        <v>28.204431537721863</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="449" t="s">
+      <c r="B7" s="202" t="s">
         <v>21</v>
       </c>
       <c r="C7">
-        <v>11.2106562855263</v>
+        <v>5.5789028513520922</v>
       </c>
       <c r="D7">
-        <v>0.80200785565934485</v>
+        <v>0.38260850509234434</v>
       </c>
       <c r="E7">
-        <v>6.0484046392086848</v>
+        <v>6.6528755228402403</v>
       </c>
       <c r="F7">
-        <v>9.8977372586796122</v>
+        <v>2.6599972250042043</v>
       </c>
       <c r="G7">
-        <v>19.564044734484604</v>
+        <v>9.3175717855901041</v>
       </c>
       <c r="H7">
-        <v>5.4090887575396787</v>
+        <v>2.0870562501558791</v>
       </c>
       <c r="I7">
-        <v>51.032830319087665</v>
+        <v>-0.041469876742310792</v>
       </c>
       <c r="J7">
-        <v>88.231800673885587</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="449" t="s">
+        <v>31.056929053966122</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="449" t="s">
+      <c r="B8" s="202" t="s">
         <v>23</v>
       </c>
       <c r="C8">
-        <v>13.881152830077614</v>
+        <v>7.0066582545991158</v>
       </c>
       <c r="D8">
-        <v>1.7234503301597883</v>
+        <v>0.74190539631212493</v>
       </c>
       <c r="E8">
-        <v>7.1193524576322016</v>
+        <v>9.5419212142394176</v>
       </c>
       <c r="F8">
-        <v>24.775969736532144</v>
+        <v>4.9569664512104978</v>
       </c>
       <c r="G8">
-        <v>48.014219733248211</v>
+        <v>17.769547292112918</v>
       </c>
       <c r="H8">
-        <v>14.867691792657137</v>
+        <v>7.1035905662625787</v>
       </c>
       <c r="I8">
-        <v>7.2636371752522093</v>
+        <v>23.053627760252365</v>
       </c>
       <c r="J8">
-        <v>88.273442090586627</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="449" t="s">
+        <v>61.027468153546046</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="449" t="s">
+      <c r="B9" s="202" t="s">
         <v>25</v>
       </c>
       <c r="C9">
-        <v>13.811791566638473</v>
+        <v>6.8277376277504143</v>
       </c>
       <c r="D9">
-        <v>1.2347617355381917</v>
+        <v>0.71117386385873971</v>
       </c>
       <c r="E9">
-        <v>7.5554901971407986</v>
+        <v>11.302598541872827</v>
       </c>
       <c r="F9">
-        <v>14.954904171536711</v>
+        <v>4.6767071001311047</v>
       </c>
       <c r="G9">
-        <v>36.961202177274011</v>
+        <v>16.316692310796064</v>
       </c>
       <c r="H9">
-        <v>9.9274012658193787</v>
+        <v>5.5890879636909183</v>
       </c>
       <c r="I9">
-        <v>8.6742380913473323</v>
+        <v>-0.27047774601878316</v>
       </c>
       <c r="J9">
-        <v>92.636487902639459</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="449" t="s">
+        <v>47.033446239358035</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="A10" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="449" t="s">
+      <c r="B10" s="202" t="s">
         <v>27</v>
       </c>
       <c r="C10">
-        <v>10.008964490800315</v>
+        <v>5.0862539129267752</v>
       </c>
       <c r="D10">
-        <v>0.97921278674023915</v>
+        <v>0.63440014438994785</v>
       </c>
       <c r="E10">
-        <v>5.842954491537987</v>
+        <v>7.1335535540016179</v>
       </c>
       <c r="F10">
-        <v>9.1824278279741058</v>
+        <v>2.646715650076533</v>
       </c>
       <c r="G10">
-        <v>21.972643448968551</v>
+        <v>10.391064633455576</v>
       </c>
       <c r="H10">
-        <v>6.4077160977203347</v>
+        <v>2.7125309053005009</v>
       </c>
       <c r="I10">
-        <v>-48.397640527411518</v>
+        <v>-5.1183206106870225</v>
       </c>
       <c r="J10">
-        <v>77.604009809378226</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="449" t="s">
+        <v>42.33388851328548</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="A11" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="449" t="s">
+      <c r="B11" s="202" t="s">
         <v>29</v>
       </c>
       <c r="C11">
-        <v>16.789093359001082</v>
+        <v>8.4327090540001901</v>
       </c>
       <c r="D11">
-        <v>2.9709315974386166</v>
+        <v>1.595324457635001</v>
       </c>
       <c r="E11">
-        <v>10.974559946552324</v>
+        <v>13.031346577820106</v>
       </c>
       <c r="F11">
-        <v>30.506551321502698</v>
+        <v>9.4342702971860941</v>
       </c>
       <c r="G11">
-        <v>42.745820536732367</v>
+        <v>22.231596689407173</v>
       </c>
       <c r="H11">
-        <v>11.975665933432216</v>
+        <v>5.534554634520882</v>
       </c>
       <c r="I11">
-        <v>-32.555907057925168</v>
+        <v>-1.119519021457448</v>
       </c>
       <c r="J11">
-        <v>83.459049537929744</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="449" t="s">
+        <v>52.202516769374022</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="449" t="s">
+      <c r="B12" s="202" t="s">
         <v>31</v>
       </c>
       <c r="C12">
-        <v>22.775303704771925</v>
+        <v>11.483225473958679</v>
       </c>
       <c r="D12">
-        <v>0.25043066062964009</v>
+        <v>0.090989909066703331</v>
       </c>
       <c r="E12">
-        <v>10.756674463737051</v>
+        <v>17.572115917274409</v>
       </c>
       <c r="F12">
-        <v>18.047804577976521</v>
+        <v>5.2699356109322952</v>
       </c>
       <c r="G12">
-        <v>31.220641544036582</v>
+        <v>18.458634225987197</v>
       </c>
       <c r="H12">
-        <v>8.2784770798121183</v>
+        <v>4.7340429109544075</v>
       </c>
       <c r="I12">
-        <v>-24.856281407035176</v>
+        <v>5.1693467336683421</v>
       </c>
       <c r="J12">
-        <v>70.944323738612624</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="449" t="s">
+        <v>24.301855660456393</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.25">
+      <c r="A13" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="449" t="s">
+      <c r="B13" s="202" t="s">
         <v>33</v>
       </c>
       <c r="C13">
-        <v>8.8495491421516235</v>
+        <v>4.3607230896254316</v>
       </c>
       <c r="D13">
-        <v>0.87775950682058812</v>
+        <v>0.42288352626463066</v>
       </c>
       <c r="E13">
-        <v>4.5413437507290384</v>
+        <v>5.1813492520949822</v>
       </c>
       <c r="F13">
-        <v>12.690844899028862</v>
+        <v>2.0652745207457732</v>
       </c>
       <c r="G13">
-        <v>26.298485072093978</v>
+        <v>11.386834957764064</v>
       </c>
       <c r="H13">
-        <v>8.2127481361692869</v>
+        <v>3.0796514590847055</v>
       </c>
       <c r="I13">
-        <v>12.380986741228465</v>
+        <v>-16.579417335618292</v>
       </c>
       <c r="J13">
-        <v>86.959899140075194</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="449" t="s">
+        <v>35.285784386118145</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="449" t="s">
+      <c r="B14" s="202" t="s">
         <v>35</v>
       </c>
       <c r="C14">
-        <v>31.110807892564061</v>
+        <v>15.521316279274636</v>
       </c>
       <c r="D14">
-        <v>3.1601961903761908</v>
+        <v>1.5260780129859468</v>
       </c>
       <c r="E14">
-        <v>22.079803782614633</v>
+        <v>27.203865860026323</v>
       </c>
       <c r="F14">
-        <v>34.857908504740976</v>
+        <v>12.466449138449626</v>
       </c>
       <c r="G14">
-        <v>87.352528720221429</v>
+        <v>37.098767461852091</v>
       </c>
       <c r="H14">
-        <v>26.260933054972281</v>
+        <v>11.360882171725946</v>
       </c>
       <c r="I14">
-        <v>-58.587008472735171</v>
+        <v>-8.7092170465807737</v>
       </c>
       <c r="J14">
-        <v>86.501982159769085</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="449" t="s">
+        <v>45.952494617846483</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="449" t="s">
+      <c r="B15" s="202" t="s">
         <v>35</v>
       </c>
       <c r="C15">
-        <v>28.014089056129844</v>
+        <v>14.065039321735643</v>
       </c>
       <c r="D15">
-        <v>1.4063301088581504</v>
+        <v>0.70227094504427334</v>
       </c>
       <c r="E15">
-        <v>20.151209893026234</v>
+        <v>26.318454105590714</v>
       </c>
       <c r="F15">
-        <v>22.653909774583635</v>
+        <v>10.672844984813427</v>
       </c>
       <c r="G15">
-        <v>54.931443125721117</v>
+        <v>31.556311061688465</v>
       </c>
       <c r="H15">
-        <v>15.749048410466781</v>
+        <v>11.728290296214265</v>
       </c>
       <c r="I15">
-        <v>-26.15440640932265</v>
+        <v>-18.494451519010369</v>
       </c>
       <c r="J15">
-        <v>75.82119726273973</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="449" t="s">
+        <v>29.686094502916671</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="449" t="s">
+      <c r="B16" s="202" t="s">
         <v>38</v>
       </c>
       <c r="C16">
-        <v>10.788179496095159</v>
+        <v>5.3942226846036672</v>
       </c>
       <c r="D16">
-        <v>1.552774446597895</v>
+        <v>0.8211209708124102</v>
       </c>
       <c r="E16">
-        <v>6.0010281596201649</v>
+        <v>7.1991977864441452</v>
       </c>
       <c r="F16">
-        <v>9.6368363561078283</v>
+        <v>3.5343827219653328</v>
       </c>
       <c r="G16">
-        <v>30.697827680589974</v>
+        <v>12.131981002392461</v>
       </c>
       <c r="H16">
-        <v>8.8475955151121344</v>
+        <v>4.0363010598339866</v>
       </c>
       <c r="I16">
-        <v>-10.74712950600801</v>
+        <v>7.0702269692923903</v>
       </c>
       <c r="J16">
-        <v>87.417355101441416</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="449" t="s">
+        <v>55.229197552863127</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="449" t="s">
+      <c r="B17" s="202" t="s">
         <v>40</v>
       </c>
       <c r="C17">
-        <v>32.60257052272808</v>
+        <v>16.15001901952461</v>
       </c>
       <c r="D17">
-        <v>13.430820428255945</v>
+        <v>6.4090071577727521</v>
       </c>
       <c r="E17">
-        <v>16.204720162314469</v>
+        <v>13.996447812153292</v>
       </c>
       <c r="F17">
-        <v>36.970119667733037</v>
+        <v>7.4040160553219412</v>
       </c>
       <c r="G17">
-        <v>82.951749576106948</v>
+        <v>25.287386855274349</v>
       </c>
       <c r="H17">
-        <v>25.262055340188706</v>
+        <v>6.0857735353285927</v>
       </c>
       <c r="I17">
-        <v>119.0834813499112</v>
+        <v>78.44634146341464</v>
       </c>
       <c r="J17">
-        <v>98.547837010894781</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="449" t="s">
+        <v>84.178625740385499</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="449" t="s">
+      <c r="B18" s="202" t="s">
         <v>40</v>
       </c>
       <c r="C18">
-        <v>18.006741138237654</v>
+        <v>9.0129545432295615</v>
       </c>
       <c r="D18">
-        <v>0.47651116055521081</v>
+        <v>0.26944460425903582</v>
       </c>
       <c r="E18">
-        <v>8.2395493135021791</v>
+        <v>12.14887827236203</v>
       </c>
       <c r="F18">
-        <v>13.703741574145738</v>
+        <v>3.8718700091530542</v>
       </c>
       <c r="G18">
-        <v>26.577320695654993</v>
+        <v>14.890892469794299</v>
       </c>
       <c r="H18">
-        <v>7.6815788638478608</v>
+        <v>3.0569973020348971</v>
       </c>
       <c r="I18">
-        <v>54.513101065361361</v>
+        <v>35.647566945004321</v>
       </c>
       <c r="J18">
-        <v>85.709696865931647</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="449" t="s">
+        <v>39.438234483851922</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="449" t="s">
+      <c r="B19" s="202" t="s">
         <v>43</v>
       </c>
       <c r="C19">
-        <v>16.722358540674794</v>
+        <v>8.4533726090785368</v>
       </c>
       <c r="D19">
-        <v>1.4070342611591671</v>
+        <v>0.73333803997103453</v>
       </c>
       <c r="E19">
-        <v>4.9176569483092845</v>
+        <v>10.716620813906896</v>
       </c>
       <c r="F19">
-        <v>9.9774818147695665</v>
+        <v>5.1169877668715866</v>
       </c>
       <c r="G19">
-        <v>23.359371491554846</v>
+        <v>15.458051359061749</v>
       </c>
       <c r="H19">
-        <v>6.7378337874574097</v>
+        <v>5.3086152259248873</v>
       </c>
       <c r="I19">
-        <v>34.879931241942415</v>
+        <v>1.6120326600773529</v>
       </c>
       <c r="J19">
-        <v>88.865403466674977</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="449" t="s">
+        <v>27.715723209014165</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="202" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="449" t="s">
+      <c r="B20" s="202" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>17.648108764346301</v>
+        <v>8.8035447106209119</v>
       </c>
       <c r="D20">
-        <v>3.6017506123846288</v>
+        <v>1.8433657250944016</v>
       </c>
       <c r="E20">
-        <v>5.4649309400665791</v>
+        <v>8.8979583890303111</v>
       </c>
       <c r="F20">
-        <v>13.475057450632171</v>
+        <v>2.9269074828379824</v>
       </c>
       <c r="G20">
-        <v>30.079505277040724</v>
+        <v>15.313357561739695</v>
       </c>
       <c r="H20">
-        <v>8.9524739790581158</v>
+        <v>3.8830216367237957</v>
       </c>
       <c r="I20">
-        <v>-18.49560388708931</v>
+        <v>-13.2313743637205</v>
       </c>
       <c r="J20">
-        <v>83.521147720233259</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="449" t="s">
+        <v>44.686757676216772</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="202" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="449" t="s">
+      <c r="B21" s="202" t="s">
         <v>47</v>
       </c>
       <c r="C21">
-        <v>10.051713672241432</v>
+        <v>5.0035959820409293</v>
       </c>
       <c r="D21">
-        <v>1.3988977000031015</v>
+        <v>0.72079201160650874</v>
       </c>
       <c r="E21">
-        <v>2.9810495778965023</v>
+        <v>6.6571128925234939</v>
       </c>
       <c r="F21">
-        <v>8.3742737955537798</v>
+        <v>2.9482173040526125</v>
       </c>
       <c r="G21">
-        <v>20.304100279881059</v>
+        <v>8.4724570334146385</v>
       </c>
       <c r="H21">
-        <v>5.4689338225726045</v>
+        <v>2.0044883875113451</v>
       </c>
       <c r="I21">
-        <v>83.289581797113669</v>
+        <v>-4.0987654320987659</v>
       </c>
       <c r="J21">
-        <v>88.890568563155952</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="449" t="s">
+        <v>36.17083947140636</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="202" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="449" t="s">
+      <c r="B22" s="202" t="s">
         <v>49</v>
       </c>
       <c r="C22">
-        <v>13.087321796334395</v>
+        <v>6.4670222047096768</v>
       </c>
       <c r="D22">
-        <v>0.95241125295284979</v>
+        <v>0.52486565666781126</v>
       </c>
       <c r="E22">
-        <v>2.4678032125694775</v>
+        <v>4.8936638115145037</v>
       </c>
       <c r="F22">
-        <v>11.067395875239599</v>
+        <v>4.2282191828560807</v>
       </c>
       <c r="G22">
-        <v>20.036294737783475</v>
+        <v>12.828414266119639</v>
       </c>
       <c r="H22">
-        <v>6.0104196230036262</v>
+        <v>3.0638317790376961</v>
       </c>
       <c r="I22">
-        <v>-15.001912858660999</v>
+        <v>33.452072263549418</v>
       </c>
       <c r="J22">
-        <v>96.903763840896346</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="449" t="s">
+        <v>52.122199702022989</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.25">
+      <c r="A23" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="449" t="s">
+      <c r="B23" s="202" t="s">
         <v>51</v>
       </c>
       <c r="C23">
-        <v>14.933365722093766</v>
+        <v>7.4689539095708231</v>
       </c>
       <c r="D23">
-        <v>1.6121730380999266</v>
+        <v>0.82265379405132544</v>
       </c>
       <c r="E23">
-        <v>21.866559968066905</v>
+        <v>13.400650343008797</v>
       </c>
       <c r="F23">
-        <v>41.215126956335141</v>
+        <v>21.412117415572865</v>
       </c>
       <c r="G23">
-        <v>71.13591714807302</v>
+        <v>33.754216113146839</v>
       </c>
       <c r="H23">
-        <v>21.397024524052085</v>
+        <v>9.3660988196448276</v>
       </c>
       <c r="I23">
-        <v>-27.734586024662359</v>
+        <v>20.813137032842583</v>
       </c>
       <c r="J23">
-        <v>88.964588504972056</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="449" t="s">
+        <v>85.851133824683686</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="449" t="s">
+      <c r="B24" s="202" t="s">
         <v>53</v>
       </c>
       <c r="C24">
-        <v>12.832785945626169</v>
+        <v>6.436248204443384</v>
       </c>
       <c r="D24">
-        <v>1.7277447366325294</v>
+        <v>0.86764809564373324</v>
       </c>
       <c r="E24">
-        <v>4.6176289527967125</v>
+        <v>6.689129563925639</v>
       </c>
       <c r="F24">
-        <v>18.296948952838811</v>
+        <v>5.5941638770364994</v>
       </c>
       <c r="G24">
-        <v>32.341249448924444</v>
+        <v>12.84297639347009</v>
       </c>
       <c r="H24">
-        <v>9.8801619256966955</v>
+        <v>3.2039840384271647</v>
       </c>
       <c r="I24">
-        <v>-47.854510184287101</v>
+        <v>12.416090104585679</v>
       </c>
       <c r="J24">
-        <v>98.216363068908862</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="449" t="s">
+        <v>72.410452510618256</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.25">
+      <c r="A25" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="449" t="s">
+      <c r="B25" s="202" t="s">
         <v>55</v>
       </c>
       <c r="C25">
-        <v>16.110460122593995</v>
+        <v>7.9828446830925239</v>
       </c>
       <c r="D25">
-        <v>0.92351952190588205</v>
+        <v>0.42081343059544196</v>
       </c>
       <c r="E25">
-        <v>8.0605862225473484</v>
+        <v>14.406598207018879</v>
       </c>
       <c r="F25">
-        <v>23.060772004450612</v>
+        <v>7.7300982605337296</v>
       </c>
       <c r="G25">
-        <v>48.465658055718755</v>
+        <v>17.955085759980118</v>
       </c>
       <c r="H25">
-        <v>13.699635241559758</v>
+        <v>7.0022687527145226</v>
       </c>
       <c r="I25">
-        <v>1.2116598216968848</v>
+        <v>-23.448055194480553</v>
       </c>
       <c r="J25">
-        <v>85.718367492768635</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="449" t="s">
+        <v>63.797449215990127</v>
+      </c>
+    </row>
+    <row r="26" x14ac:dyDescent="0.25">
+      <c r="A26" s="202" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="449" t="s">
+      <c r="B26" s="202" t="s">
         <v>57</v>
       </c>
       <c r="C26">
-        <v>18.877428589883753</v>
+        <v>9.5052934501359978</v>
       </c>
       <c r="D26">
-        <v>1.727933090662749</v>
+        <v>0.80512798691113652</v>
       </c>
       <c r="E26">
-        <v>9.3019364385697489</v>
+        <v>12.907551323028946</v>
       </c>
       <c r="F26">
-        <v>18.383269515731911</v>
+        <v>6.5168148055383872</v>
       </c>
       <c r="G26">
-        <v>39.556158907550568</v>
+        <v>19.260660497205095</v>
       </c>
       <c r="H26">
-        <v>11.092433103800316</v>
+        <v>4.6733314590649258</v>
       </c>
       <c r="I26">
-        <v>-33.689552238805973</v>
+        <v>-35.851222592124898</v>
       </c>
       <c r="J26">
-        <v>87.60523815853395</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="449" t="s">
+        <v>50.788572786186599</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="202" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="449" t="s">
+      <c r="B27" s="202" t="s">
         <v>59</v>
       </c>
       <c r="C27">
-        <v>14.025151292409893</v>
+        <v>7.0014720557587946</v>
       </c>
       <c r="D27">
-        <v>2.4365222363761085</v>
+        <v>1.2040357423387382</v>
       </c>
       <c r="E27">
-        <v>6.7367170056224976</v>
+        <v>9.7394957906319721</v>
       </c>
       <c r="F27">
-        <v>15.71288231386527</v>
+        <v>2.7399204758066347</v>
       </c>
       <c r="G27">
-        <v>37.250183221286399</v>
+        <v>14.165829181090213</v>
       </c>
       <c r="H27">
-        <v>10.518716325687725</v>
+        <v>3.1791614173359832</v>
       </c>
       <c r="I27">
-        <v>6.830951207491375</v>
+        <v>18.896007885657959</v>
       </c>
       <c r="J27">
-        <v>87.944461091865392</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="449" t="s">
+        <v>30.203704217159423</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.25">
+      <c r="A28" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="449" t="s">
+      <c r="B28" s="202" t="s">
         <v>61</v>
       </c>
       <c r="C28">
-        <v>16.924078105147053</v>
+        <v>8.4107088943639852</v>
       </c>
       <c r="D28">
-        <v>3.35041632064191</v>
+        <v>1.7699338743964241</v>
       </c>
       <c r="E28">
-        <v>12.024261960320569</v>
+        <v>14.196280330312534</v>
       </c>
       <c r="F28">
-        <v>27.370280946925043</v>
+        <v>7.3036097140874441</v>
       </c>
       <c r="G28">
-        <v>54.022762227676388</v>
+        <v>19.592031887422134</v>
       </c>
       <c r="H28">
-        <v>15.886019092717573</v>
+        <v>5.8750615404075184</v>
       </c>
       <c r="I28">
-        <v>16.115728563913731</v>
+        <v>27.462331978743357</v>
       </c>
       <c r="J28">
-        <v>94.606513144686872</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="449" t="s">
+        <v>50.803114096869521</v>
+      </c>
+    </row>
+    <row r="29" x14ac:dyDescent="0.25">
+      <c r="A29" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="449" t="s">
+      <c r="B29" s="202" t="s">
         <v>63</v>
       </c>
       <c r="C29">
-        <v>16.534298518110727</v>
+        <v>8.1774620942852714</v>
       </c>
       <c r="D29">
-        <v>0.73163032457622179</v>
+        <v>0.36421232305045625</v>
       </c>
       <c r="E29">
-        <v>4.3095185523832873</v>
+        <v>8.6830323696885809</v>
       </c>
       <c r="F29">
-        <v>11.241181467177048</v>
+        <v>4.6549812851233376</v>
       </c>
       <c r="G29">
-        <v>22.983726803079595</v>
+        <v>12.193230119519523</v>
       </c>
       <c r="H29">
-        <v>6.6624265373898846</v>
+        <v>4.8497169716529802</v>
       </c>
       <c r="I29">
-        <v>-58.563919367185505</v>
+        <v>-35.167134473079869</v>
       </c>
       <c r="J29">
-        <v>87.288421694840935</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="449" t="s">
+        <v>41.834949862606891</v>
+      </c>
+    </row>
+    <row r="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="449" t="s">
+      <c r="B30" s="202" t="s">
         <v>65</v>
       </c>
       <c r="C30">
-        <v>14.30665130061529</v>
+        <v>7.1250227604345699</v>
       </c>
       <c r="D30">
-        <v>1.5705025910811541</v>
+        <v>0.78551029527008387</v>
       </c>
       <c r="E30">
-        <v>6.2463953461488684</v>
+        <v>8.4122515461759502</v>
       </c>
       <c r="F30">
-        <v>16.915747633286834</v>
+        <v>4.1652084575067301</v>
       </c>
       <c r="G30">
-        <v>39.105045495577571</v>
+        <v>13.860249541236561</v>
       </c>
       <c r="H30">
-        <v>11.939232025981919</v>
+        <v>5.0837318166935592</v>
       </c>
       <c r="I30">
-        <v>81.831710894785971</v>
+        <v>42.29676043194241</v>
       </c>
       <c r="J30">
-        <v>91.289006379497536</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="449" t="s">
+        <v>72.938837733397449</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.25">
+      <c r="A31" s="202" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="449" t="s">
+      <c r="B31" s="202" t="s">
         <v>67</v>
       </c>
       <c r="C31">
-        <v>13.297981640350729</v>
+        <v>6.6039896563894152</v>
       </c>
       <c r="D31">
-        <v>9.113702576147368</v>
+        <v>4.576501374940567</v>
       </c>
       <c r="E31">
-        <v>13.245955121305805</v>
+        <v>10.5728187501867</v>
       </c>
       <c r="F31">
-        <v>34.707446539910421</v>
+        <v>6.912533252884919</v>
       </c>
       <c r="G31">
-        <v>70.503215222787915</v>
+        <v>18.05667973375208</v>
       </c>
       <c r="H31">
-        <v>21.459728010441548</v>
+        <v>5.7366162333251154</v>
       </c>
       <c r="I31">
-        <v>50.419335822361958</v>
+        <v>25.555259035795093</v>
       </c>
       <c r="J31">
-        <v>96.027186002012556</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="449" t="s">
+        <v>69.518772629814634</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.25">
+      <c r="A32" s="202" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="449" t="s">
+      <c r="B32" s="202" t="s">
         <v>69</v>
       </c>
       <c r="C32">
-        <v>22.442977222079445</v>
+        <v>11.107709976806115</v>
       </c>
       <c r="D32">
-        <v>1.8941120611230104</v>
+        <v>0.84422486620490877</v>
       </c>
       <c r="E32">
-        <v>13.225976171627515</v>
+        <v>16.880267940467331</v>
       </c>
       <c r="F32">
-        <v>18.797949676504498</v>
+        <v>6.3956045430243185</v>
       </c>
       <c r="G32">
-        <v>35.525950534430514</v>
+        <v>18.200157455486284</v>
       </c>
       <c r="H32">
-        <v>9.811817910354188</v>
+        <v>5.5368526130028641</v>
       </c>
       <c r="I32">
-        <v>-51.085714285714289</v>
+        <v>-30.360902255639097</v>
       </c>
       <c r="J32">
-        <v>79.001172667219336</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="449" t="s">
+        <v>42.453682437017846</v>
+      </c>
+    </row>
+    <row r="33" x14ac:dyDescent="0.25">
+      <c r="A33" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="449" t="s">
+      <c r="B33" s="202" t="s">
         <v>71</v>
       </c>
       <c r="C33">
-        <v>6.7405353747045353</v>
+        <v>3.3475205277699143</v>
       </c>
       <c r="D33">
-        <v>1.199694900301123</v>
+        <v>0.59636001770252201</v>
       </c>
       <c r="E33">
-        <v>4.9218345398317904</v>
+        <v>4.3485861388531202</v>
       </c>
       <c r="F33">
-        <v>11.695240806247241</v>
+        <v>2.3360164432434463</v>
       </c>
       <c r="G33">
-        <v>27.396942357262475</v>
+        <v>8.5791557949694077</v>
       </c>
       <c r="H33">
-        <v>7.4592989561313026</v>
+        <v>2.6146872257763363</v>
       </c>
       <c r="I33">
-        <v>-2.9972128921603658</v>
+        <v>-27.888229829200313</v>
       </c>
       <c r="J33">
-        <v>87.057918956016053</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="449" t="s">
+        <v>72.78212255490385</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.25">
+      <c r="A34" s="202" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="449" t="s">
+      <c r="B34" s="202" t="s">
         <v>73</v>
       </c>
       <c r="C34">
-        <v>24.03231216977537</v>
+        <v>12.02395535428955</v>
       </c>
       <c r="D34">
-        <v>3.7876847123274824</v>
+        <v>1.7509954621024708</v>
       </c>
       <c r="E34">
-        <v>13.646714730675088</v>
+        <v>18.398874933920162</v>
       </c>
       <c r="F34">
-        <v>17.371629785567102</v>
+        <v>6.4096242630458953</v>
       </c>
       <c r="G34">
-        <v>41.858438545392168</v>
+        <v>19.296516728193904</v>
       </c>
       <c r="H34">
-        <v>11.863076346082755</v>
+        <v>6.1600139019521265</v>
       </c>
       <c r="I34">
-        <v>11.627386103334182</v>
+        <v>-6.1336047843237056</v>
       </c>
       <c r="J34">
-        <v>81.606821303439659</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="449" t="s">
+        <v>44.101781494021076</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.25">
+      <c r="A35" s="202" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="449" t="s">
+      <c r="B35" s="202" t="s">
         <v>75</v>
       </c>
       <c r="C35">
-        <v>10.82483061187269</v>
+        <v>5.2848089008748138</v>
       </c>
       <c r="D35">
-        <v>2.4589629374656439</v>
+        <v>1.1378557402087304</v>
       </c>
       <c r="E35">
-        <v>2.6873492909788252</v>
+        <v>6.0414930956994146</v>
       </c>
       <c r="F35">
-        <v>22.517439187036416</v>
+        <v>3.4542045878200001</v>
       </c>
       <c r="G35">
-        <v>28.468644148096441</v>
+        <v>11.547212976450865</v>
       </c>
       <c r="H35">
-        <v>8.0743229254264346</v>
+        <v>2.9546398286679958</v>
       </c>
       <c r="I35">
-        <v>39.603613939480852</v>
+        <v>3.711076354329589</v>
       </c>
       <c r="J35">
-        <v>91.715623803079183</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="449" t="s">
+        <v>59.835331614655914</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.25">
+      <c r="A36" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="449" t="s">
+      <c r="B36" s="202" t="s">
         <v>75</v>
       </c>
       <c r="C36">
-        <v>15.224151809454186</v>
+        <v>7.671109956645406</v>
       </c>
       <c r="D36">
-        <v>1.7322700565700113</v>
+        <v>0.85921874246234919</v>
       </c>
       <c r="E36">
-        <v>4.974618108188487</v>
+        <v>7.4366500152852897</v>
       </c>
       <c r="F36">
-        <v>17.699020996682236</v>
+        <v>4.9216748767926619</v>
       </c>
       <c r="G36">
-        <v>33.666784875287568</v>
+        <v>16.73278043501141</v>
       </c>
       <c r="H36">
-        <v>9.312244261902995</v>
+        <v>6.4614205332054553</v>
       </c>
       <c r="I36">
-        <v>123.52614851199075</v>
+        <v>72.041606472117891</v>
       </c>
       <c r="J36">
-        <v>104.79032493061618</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="449" t="s">
+        <v>112.48183826773524</v>
+      </c>
+    </row>
+    <row r="37" x14ac:dyDescent="0.25">
+      <c r="A37" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="449" t="s">
+      <c r="B37" s="202" t="s">
         <v>78</v>
       </c>
       <c r="C37">
-        <v>13.426701890769912</v>
+        <v>6.6209048890936675</v>
       </c>
       <c r="D37">
-        <v>1.1927362592961168</v>
+        <v>0.66325504791589329</v>
       </c>
       <c r="E37">
-        <v>5.3826138783192237</v>
+        <v>8.7070863190887184</v>
       </c>
       <c r="F37">
-        <v>11.638367217495581</v>
+        <v>5.991902035583454</v>
       </c>
       <c r="G37">
-        <v>22.514064162058183</v>
+        <v>12.539169885449033</v>
       </c>
       <c r="H37">
-        <v>6.44779427705432</v>
+        <v>3.6532351267732497</v>
       </c>
       <c r="I37">
-        <v>-31.714205555036006</v>
+        <v>-22.898680886893068</v>
       </c>
       <c r="J37">
-        <v>77.115772506434624</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="449" t="s">
+        <v>41.9780150697407</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.25">
+      <c r="A38" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="449" t="s">
+      <c r="B38" s="202" t="s">
         <v>80</v>
       </c>
       <c r="C38">
-        <v>16.841269766520238</v>
+        <v>8.480989416792541</v>
       </c>
       <c r="D38">
-        <v>2.4333898406138132</v>
+        <v>1.1032853353125966</v>
       </c>
       <c r="E38">
-        <v>6.6014549718658664</v>
+        <v>7.5796617431898934</v>
       </c>
       <c r="F38">
-        <v>13.067880539385724</v>
+        <v>4.7096529275547168</v>
       </c>
       <c r="G38">
-        <v>25.864331801733194</v>
+        <v>11.607058436338038</v>
       </c>
       <c r="H38">
-        <v>7.0984122362331439</v>
+        <v>4.1938241564345198</v>
       </c>
       <c r="I38">
-        <v>-20.20827389443652</v>
+        <v>-8.6518359689091398</v>
       </c>
       <c r="J38">
-        <v>89.344087053431736</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="449" t="s">
+        <v>63.798184781486704</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.25">
+      <c r="A39" s="202" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="449" t="s">
+      <c r="B39" s="202" t="s">
         <v>82</v>
       </c>
       <c r="C39">
-        <v>25.166054674042996</v>
+        <v>12.785140211165466</v>
       </c>
       <c r="D39">
-        <v>3.0017438368889957</v>
+        <v>1.5958306483984277</v>
       </c>
       <c r="E39">
-        <v>17.299072141263686</v>
+        <v>16.941908263499084</v>
       </c>
       <c r="F39">
-        <v>38.241245779074326</v>
+        <v>11.130522838553837</v>
       </c>
       <c r="G39">
-        <v>91.068639694027596</v>
+        <v>34.794727347851058</v>
       </c>
       <c r="H39">
-        <v>26.927457003085031</v>
+        <v>8.3413855300986004</v>
       </c>
       <c r="I39">
-        <v>-61.961241639512949</v>
+        <v>-39.824780976220275</v>
       </c>
       <c r="J39">
-        <v>87.377043470595851</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="449" t="s">
+        <v>43.335870439663495</v>
+      </c>
+    </row>
+    <row r="40" x14ac:dyDescent="0.25">
+      <c r="A40" s="202" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="449" t="s">
+      <c r="B40" s="202" t="s">
         <v>84</v>
       </c>
       <c r="C40">
-        <v>15.023725832832529</v>
+        <v>7.5361452207981117</v>
       </c>
       <c r="D40">
-        <v>1.7949684073618659</v>
+        <v>0.84599054058697165</v>
       </c>
       <c r="E40">
-        <v>5.8823355029878011</v>
+        <v>10.967837011531126</v>
       </c>
       <c r="F40">
-        <v>10.710820979821978</v>
+        <v>3.6777595979588829</v>
       </c>
       <c r="G40">
-        <v>31.743982626388789</v>
+        <v>14.185891646505082</v>
       </c>
       <c r="H40">
-        <v>9.1197089444637083</v>
+        <v>4.0031229626457288</v>
       </c>
       <c r="I40">
-        <v>13.478530534351146</v>
+        <v>9.8759541984732824</v>
       </c>
       <c r="J40">
-        <v>97.859164600590105</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="449" t="s">
+        <v>36.987140329141774</v>
+      </c>
+    </row>
+    <row r="41" x14ac:dyDescent="0.25">
+      <c r="A41" s="202" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="449" t="s">
+      <c r="B41" s="202" t="s">
         <v>86</v>
       </c>
       <c r="C41">
-        <v>14.892822882676626</v>
+        <v>7.4420511864363981</v>
       </c>
       <c r="D41">
-        <v>2.5177215096488794</v>
+        <v>1.3127018332563671</v>
       </c>
       <c r="E41">
-        <v>8.1300598916328948</v>
+        <v>11.167724445630128</v>
       </c>
       <c r="F41">
-        <v>22.311240003844865</v>
+        <v>5.2942888076663444</v>
       </c>
       <c r="G41">
-        <v>45.400108682069884</v>
+        <v>18.361273684228102</v>
       </c>
       <c r="H41">
-        <v>13.636631724507355</v>
+        <v>5.940560190379232</v>
       </c>
       <c r="I41">
-        <v>-38.909299326551078</v>
+        <v>-11.64327568958125</v>
       </c>
       <c r="J41">
-        <v>103.84014587557488</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="449" t="s">
+        <v>69.790999582218788</v>
+      </c>
+    </row>
+    <row r="42" x14ac:dyDescent="0.25">
+      <c r="A42" s="202" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="449" t="s">
+      <c r="B42" s="202" t="s">
         <v>88</v>
       </c>
       <c r="C42">
-        <v>9.3309951592450293</v>
+        <v>4.658830534999935</v>
       </c>
       <c r="D42">
-        <v>0.90850998643421732</v>
+        <v>0.4418230326617601</v>
       </c>
       <c r="E42">
-        <v>2.5520642334842853</v>
+        <v>3.0576444242704572</v>
       </c>
       <c r="F42">
-        <v>14.270295013903729</v>
+        <v>4.5820169187285096</v>
       </c>
       <c r="G42">
-        <v>23.508306971623508</v>
+        <v>8.9624980655521362</v>
       </c>
       <c r="H42">
-        <v>6.7132473896486102</v>
+        <v>2.1719605559931616</v>
       </c>
       <c r="I42">
-        <v>-64.487362281270251</v>
+        <v>-47.052309971298953</v>
       </c>
       <c r="J42">
-        <v>99.152988097216863</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="449" t="s">
+        <v>70.005679296637297</v>
+      </c>
+    </row>
+    <row r="43" x14ac:dyDescent="0.25">
+      <c r="A43" s="202" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="449" t="s">
+      <c r="B43" s="202" t="s">
         <v>90</v>
       </c>
       <c r="C43">
-        <v>22.755416774931533</v>
+        <v>11.146811619309789</v>
       </c>
       <c r="D43">
-        <v>3.7258052718091812</v>
+        <v>1.376241839282895</v>
       </c>
       <c r="E43">
-        <v>14.488246627694055</v>
+        <v>16.279493509329889</v>
       </c>
       <c r="F43">
-        <v>22.929988390211371</v>
+        <v>6.5034425385164285</v>
       </c>
       <c r="G43">
-        <v>42.468561163575991</v>
+        <v>20.061243549442317</v>
       </c>
       <c r="H43">
-        <v>11.417199516630886</v>
+        <v>5.148572531785744</v>
       </c>
       <c r="I43">
-        <v>17.85818013285957</v>
+        <v>-8.2483578354707543</v>
       </c>
       <c r="J43">
-        <v>83.291023487140961</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="449" t="s">
+        <v>33.769485705735576</v>
+      </c>
+    </row>
+    <row r="44" x14ac:dyDescent="0.25">
+      <c r="A44" s="202" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="449" t="s">
+      <c r="B44" s="202" t="s">
         <v>90</v>
       </c>
       <c r="C44">
-        <v>11.127042589226942</v>
+        <v>5.6108188038918083</v>
       </c>
       <c r="D44">
-        <v>1.1455169880805656</v>
+        <v>0.55925060943543281</v>
       </c>
       <c r="E44">
-        <v>5.2505638207368639</v>
+        <v>7.2583578069639554</v>
       </c>
       <c r="F44">
-        <v>8.9481660686601217</v>
+        <v>3.9648886028661696</v>
       </c>
       <c r="G44">
-        <v>23.294439170849834</v>
+        <v>10.170028455966296</v>
       </c>
       <c r="H44">
-        <v>6.7630139803507356</v>
+        <v>2.8235737181920912</v>
       </c>
       <c r="I44">
-        <v>-26.92645466180959</v>
+        <v>-23.878310524761247</v>
       </c>
       <c r="J44">
-        <v>85.767175970585754</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="449" t="s">
+        <v>44.94564744316537</v>
+      </c>
+    </row>
+    <row r="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="202" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="449" t="s">
+      <c r="B45" s="202" t="s">
         <v>93</v>
       </c>
       <c r="C45">
-        <v>16.99919800391914</v>
+        <v>8.4872374543538243</v>
       </c>
       <c r="D45">
-        <v>0.80052541376565822</v>
+        <v>0.46798710471944965</v>
       </c>
       <c r="E45">
-        <v>4.3972330607842878</v>
+        <v>9.1541894685067788</v>
       </c>
       <c r="F45">
-        <v>13.441462066335252</v>
+        <v>3.7706951370812778</v>
       </c>
       <c r="G45">
-        <v>26.633624337973384</v>
+        <v>12.44256823860008</v>
       </c>
       <c r="H45">
-        <v>7.7327292589059491</v>
+        <v>3.3345901702823757</v>
       </c>
       <c r="I45">
-        <v>5.4937858508604203</v>
+        <v>-1.0437869822485206</v>
       </c>
       <c r="J45">
-        <v>84.930168150294705</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="449" t="s">
+        <v>30.663831149292488</v>
+      </c>
+    </row>
+    <row r="46" x14ac:dyDescent="0.25">
+      <c r="A46" s="202" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="449" t="s">
+      <c r="B46" s="202" t="s">
         <v>95</v>
       </c>
       <c r="C46">
-        <v>18.665383897974902</v>
+        <v>9.4089635750949245</v>
       </c>
       <c r="D46">
-        <v>4.0607067334931291</v>
+        <v>2.1044908126534341</v>
       </c>
       <c r="E46">
-        <v>17.230189441729205</v>
+        <v>20.160849359942485</v>
       </c>
       <c r="F46">
-        <v>33.750549496640438</v>
+        <v>15.073155901844704</v>
       </c>
       <c r="G46">
-        <v>74.921465653215066</v>
+        <v>37.093493564319388</v>
       </c>
       <c r="H46">
-        <v>21.112135831915516</v>
+        <v>7.7352944380090181</v>
       </c>
       <c r="I46">
-        <v>-1.2870136432541688</v>
+        <v>0.70116399677307828</v>
       </c>
       <c r="J46">
-        <v>89.960086541546787</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="449" t="s">
+        <v>67.829096416529353</v>
+      </c>
+    </row>
+    <row r="47" x14ac:dyDescent="0.25">
+      <c r="A47" s="202" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="449" t="s">
+      <c r="B47" s="202" t="s">
         <v>97</v>
       </c>
       <c r="C47">
-        <v>40.7684693506976</v>
+        <v>20.228461398179263</v>
       </c>
       <c r="D47">
-        <v>9.7568622099392215</v>
+        <v>4.9127724517050746</v>
       </c>
       <c r="E47">
-        <v>23.76967271053751</v>
+        <v>37.833614032623295</v>
       </c>
       <c r="F47">
-        <v>37.831185745566756</v>
+        <v>20.369211039695315</v>
       </c>
       <c r="G47">
-        <v>103.96990036611895</v>
+        <v>54.138378897642497</v>
       </c>
       <c r="H47">
-        <v>31.179533251352403</v>
+        <v>15.920313523651286</v>
       </c>
       <c r="I47">
-        <v>-23.237068965517242</v>
+        <v>44.848458342444786</v>
       </c>
       <c r="J47">
-        <v>93.751144614315194</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="449" t="s">
+        <v>61.529477784248499</v>
+      </c>
+    </row>
+    <row r="48" x14ac:dyDescent="0.25">
+      <c r="A48" s="202" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="449" t="s">
+      <c r="B48" s="202" t="s">
         <v>97</v>
       </c>
       <c r="C48">
-        <v>16.280211664377951</v>
+        <v>7.8792857529225877</v>
       </c>
       <c r="D48">
-        <v>1.4337592904038703</v>
+        <v>0.55067662556281316</v>
       </c>
       <c r="E48">
-        <v>1.2264821266944765</v>
+        <v>3.6656486566660056</v>
       </c>
       <c r="F48">
-        <v>11.042420137458954</v>
+        <v>4.4861562937494526</v>
       </c>
       <c r="G48">
-        <v>24.782733659102327</v>
+        <v>10.137039474704489</v>
       </c>
       <c r="H48">
-        <v>6.7798080603475466</v>
+        <v>1.67829319239607</v>
       </c>
       <c r="I48">
-        <v>36.231117824773413</v>
+        <v>28.719101123595507</v>
       </c>
       <c r="J48">
-        <v>88.877406304529444</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="449" t="s">
+        <v>52.631132397205072</v>
+      </c>
+    </row>
+    <row r="49" x14ac:dyDescent="0.25">
+      <c r="A49" s="202" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="449" t="s">
+      <c r="B49" s="202" t="s">
         <v>100</v>
       </c>
       <c r="C49">
-        <v>14.178759669608858</v>
+        <v>7.0793201243424848</v>
       </c>
       <c r="D49">
-        <v>0.89130040878407857</v>
+        <v>0.42255335351033291</v>
       </c>
       <c r="E49">
-        <v>6.3212789824448574</v>
+        <v>8.3393867647324456</v>
       </c>
       <c r="F49">
-        <v>13.563742991293109</v>
+        <v>3.3430488519652233</v>
       </c>
       <c r="G49">
-        <v>26.517767421253442</v>
+        <v>11.688372923361818</v>
       </c>
       <c r="H49">
-        <v>8.7903124682049416</v>
+        <v>3.1718153966840319</v>
       </c>
       <c r="I49">
-        <v>-13.816400695212513</v>
+        <v>-19.595512719228946</v>
       </c>
       <c r="J49">
-        <v>95.256482783401367</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="449" t="s">
+        <v>37.328936659097202</v>
+      </c>
+    </row>
+    <row r="50" x14ac:dyDescent="0.25">
+      <c r="A50" s="202" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="449" t="s">
+      <c r="B50" s="202" t="s">
         <v>100</v>
       </c>
       <c r="C50">
-        <v>13.640937360459626</v>
+        <v>6.7343540217586249</v>
       </c>
       <c r="D50">
-        <v>1.3375681288728398</v>
+        <v>0.60521133122233683</v>
       </c>
       <c r="E50">
-        <v>5.5094922004655196</v>
+        <v>8.1041117557988098</v>
       </c>
       <c r="F50">
-        <v>12.411615339714276</v>
+        <v>3.04363567045531</v>
       </c>
       <c r="G50">
-        <v>24.701579638760943</v>
+        <v>11.523316307769276</v>
       </c>
       <c r="H50">
-        <v>7.4020409347699117</v>
+        <v>3.7013322234118697</v>
       </c>
       <c r="I50">
-        <v>-26.943890274314214</v>
+        <v>-27.699501246882793</v>
       </c>
       <c r="J50">
-        <v>91.965936758814522</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="449" t="s">
+        <v>48.137022286829797</v>
+      </c>
+    </row>
+    <row r="51" x14ac:dyDescent="0.25">
+      <c r="A51" s="202" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="449" t="s">
+      <c r="B51" s="202" t="s">
         <v>103</v>
       </c>
       <c r="C51">
-        <v>47.839276128130273</v>
+        <v>23.988185148242323</v>
       </c>
       <c r="D51">
-        <v>4.8519738489727198</v>
+        <v>2.1929695975898316</v>
       </c>
       <c r="E51">
-        <v>22.634587766913924</v>
+        <v>30.497469876607095</v>
       </c>
       <c r="F51">
-        <v>41.377975604353971</v>
+        <v>15.58899414843316</v>
       </c>
       <c r="G51">
-        <v>117.10634280814975</v>
+        <v>61.436264757425924</v>
       </c>
       <c r="H51">
-        <v>30.514980661919001</v>
+        <v>16.261350414338704</v>
       </c>
       <c r="I51">
-        <v>-25.916849015317286</v>
+        <v>-47.499241274658573</v>
       </c>
       <c r="J51">
-        <v>94.258753062244594</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="449" t="s">
+        <v>72.385035375064263</v>
+      </c>
+    </row>
+    <row r="52" x14ac:dyDescent="0.25">
+      <c r="A52" s="202" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="449" t="s">
+      <c r="B52" s="202" t="s">
         <v>105</v>
       </c>
       <c r="C52">
-        <v>14.025337277807107</v>
+        <v>6.9251964615879391</v>
       </c>
       <c r="D52">
-        <v>0.80582566455512006</v>
+        <v>0.35688562456124878</v>
       </c>
       <c r="E52">
-        <v>13.430812410334507</v>
+        <v>9.088862086624399</v>
       </c>
       <c r="F52">
-        <v>36.744657736416357</v>
+        <v>7.1215508864868102</v>
       </c>
       <c r="G52">
-        <v>42.199314454358834</v>
+        <v>14.304854831916767</v>
       </c>
       <c r="H52">
-        <v>14.448697242283792</v>
+        <v>4.3132686865435099</v>
       </c>
       <c r="I52">
-        <v>-44.842984052231614</v>
+        <v>-29.332053742802302</v>
       </c>
       <c r="J52">
-        <v>98.921766087049036</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="449" t="s">
+        <v>69.750512507181682</v>
+      </c>
+    </row>
+    <row r="53" x14ac:dyDescent="0.25">
+      <c r="A53" s="202" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="449" t="s">
+      <c r="B53" s="202" t="s">
         <v>105</v>
       </c>
       <c r="C53">
-        <v>11.54547988265203</v>
+        <v>5.7311536602216577</v>
       </c>
       <c r="D53">
-        <v>0.94927368357242903</v>
+        <v>0.47576133263879172</v>
       </c>
       <c r="E53">
-        <v>5.5463438639593088</v>
+        <v>5.8340373078621841</v>
       </c>
       <c r="F53">
-        <v>17.143697456755092</v>
+        <v>4.7798820519934724</v>
       </c>
       <c r="G53">
-        <v>24.843338005199055</v>
+        <v>11.735279662189958</v>
       </c>
       <c r="H53">
-        <v>6.4576157769091322</v>
+        <v>4.7247091330493385</v>
       </c>
       <c r="I53">
-        <v>93.237633365664408</v>
+        <v>39.309408341416102</v>
       </c>
       <c r="J53">
-        <v>90.183886188910307</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="449" t="s">
+        <v>60.678713763682808</v>
+      </c>
+    </row>
+    <row r="54" x14ac:dyDescent="0.25">
+      <c r="A54" s="202" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="449" t="s">
+      <c r="B54" s="202" t="s">
         <v>108</v>
       </c>
       <c r="C54">
-        <v>26.606730237941743</v>
+        <v>13.405491467333064</v>
       </c>
       <c r="D54">
-        <v>2.8036876513290641</v>
+        <v>1.3338309914504656</v>
       </c>
       <c r="E54">
-        <v>12.079814641543125</v>
+        <v>18.184656776299303</v>
       </c>
       <c r="F54">
-        <v>22.295927044455983</v>
+        <v>9.9312503844712747</v>
       </c>
       <c r="G54">
-        <v>61.691516609274565</v>
+        <v>29.095874757863676</v>
       </c>
       <c r="H54">
-        <v>18.059663289205936</v>
+        <v>10.467728510469442</v>
       </c>
       <c r="I54">
-        <v>65.031428571428577</v>
+        <v>20.983737517831671</v>
       </c>
       <c r="J54">
-        <v>96.90044875517539</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="449" t="s">
+        <v>63.539612621608548</v>
+      </c>
+    </row>
+    <row r="55" x14ac:dyDescent="0.25">
+      <c r="A55" s="202" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="449" t="s">
+      <c r="B55" s="202" t="s">
         <v>110</v>
       </c>
       <c r="C55">
-        <v>13.362437630100295</v>
+        <v>6.6198051651380734</v>
       </c>
       <c r="D55">
-        <v>1.2458678308750684</v>
+        <v>0.57487625949093946</v>
       </c>
       <c r="E55">
-        <v>5.1682688400796097</v>
+        <v>8.442338400884557</v>
       </c>
       <c r="F55">
-        <v>14.477159869382016</v>
+        <v>4.674345437396104</v>
       </c>
       <c r="G55">
-        <v>27.625500461389517</v>
+        <v>13.284304716233082</v>
       </c>
       <c r="H55">
-        <v>7.289741724837917</v>
+        <v>3.6153354564898326</v>
       </c>
       <c r="I55">
-        <v>97.358964047293497</v>
+        <v>9.2564932501776269</v>
       </c>
       <c r="J55">
-        <v>92.795986729550549</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="449" t="s">
+        <v>54.414368943896555</v>
+      </c>
+    </row>
+    <row r="56" x14ac:dyDescent="0.25">
+      <c r="A56" s="202" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="449" t="s">
+      <c r="B56" s="202" t="s">
         <v>112</v>
       </c>
       <c r="C56">
-        <v>16.149366734421932</v>
+        <v>8.1304292651324914</v>
       </c>
       <c r="D56">
-        <v>3.2485511404270313</v>
+        <v>1.5900295163041496</v>
       </c>
       <c r="E56">
-        <v>10.373130138313179</v>
+        <v>9.2578170895607457</v>
       </c>
       <c r="F56">
-        <v>20.352983335347506</v>
+        <v>7.4893462293914173</v>
       </c>
       <c r="G56">
-        <v>36.273482190677264</v>
+        <v>15.855579531078101</v>
       </c>
       <c r="H56">
-        <v>10.259317928425869</v>
+        <v>6.8158297322110757</v>
       </c>
       <c r="I56">
-        <v>-49.922595332953897</v>
+        <v>-14.530387787996586</v>
       </c>
       <c r="J56">
-        <v>85.530507318581002</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="449" t="s">
+        <v>68.408732591230816</v>
+      </c>
+    </row>
+    <row r="57" x14ac:dyDescent="0.25">
+      <c r="A57" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="449" t="s">
+      <c r="B57" s="202" t="s">
         <v>112</v>
       </c>
       <c r="C57">
-        <v>12.715439608051687</v>
+        <v>6.3058150988833077</v>
       </c>
       <c r="D57">
-        <v>1.7898239840910142</v>
+        <v>0.7661550683822953</v>
       </c>
       <c r="E57">
-        <v>7.0009834451674138</v>
+        <v>9.2633110454130119</v>
       </c>
       <c r="F57">
-        <v>15.781533259883609</v>
+        <v>4.0749202176753965</v>
       </c>
       <c r="G57">
-        <v>33.482905448692058</v>
+        <v>12.954537180123618</v>
       </c>
       <c r="H57">
-        <v>9.285854181289432</v>
+        <v>3.7319741455037754</v>
       </c>
       <c r="I57">
-        <v>-33.050348321722609</v>
+        <v>-5.1860060155136933</v>
       </c>
       <c r="J57">
-        <v>93.280809789470439</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="449" t="s">
+        <v>78.822228023816407</v>
+      </c>
+    </row>
+    <row r="58" x14ac:dyDescent="0.25">
+      <c r="A58" s="202" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="449" t="s">
+      <c r="B58" s="202" t="s">
         <v>115</v>
       </c>
       <c r="C58">
-        <v>24.891925685947015</v>
+        <v>12.821279931445833</v>
       </c>
       <c r="D58">
-        <v>3.9706682289723445</v>
+        <v>2.1247683683535739</v>
       </c>
       <c r="E58">
-        <v>18.010460369487557</v>
+        <v>24.939540417984997</v>
       </c>
       <c r="F58">
-        <v>23.183635650889567</v>
+        <v>10.738592447216195</v>
       </c>
       <c r="G58">
-        <v>45.957131069905742</v>
+        <v>26.21517090101311</v>
       </c>
       <c r="H58">
-        <v>13.043551354659977</v>
+        <v>8.2481055277076685</v>
       </c>
       <c r="I58">
-        <v>48.853300124533</v>
+        <v>15.418326693227092</v>
       </c>
       <c r="J58">
-        <v>84.962905892506626</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="449" t="s">
+        <v>42.518595435728955</v>
+      </c>
+    </row>
+    <row r="59" x14ac:dyDescent="0.25">
+      <c r="A59" s="202" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="449" t="s">
+      <c r="B59" s="202" t="s">
         <v>117</v>
       </c>
       <c r="C59">
-        <v>9.1274372487429449</v>
+        <v>4.5366239981955765</v>
       </c>
       <c r="D59">
-        <v>1.0105625645211362</v>
+        <v>0.35929206396663327</v>
       </c>
       <c r="E59">
-        <v>0.16624509061911752</v>
+        <v>3.2736995170825369</v>
       </c>
       <c r="F59">
-        <v>15.114005456382438</v>
+        <v>3.3740657063904962</v>
       </c>
       <c r="G59">
-        <v>29.530974422142364</v>
+        <v>9.0000799111080187</v>
       </c>
       <c r="H59">
-        <v>8.6751485492377487</v>
+        <v>3.2528561472181519</v>
       </c>
       <c r="I59">
-        <v>-6.3196386787832619</v>
+        <v>-50.97111147380447</v>
       </c>
       <c r="J59">
-        <v>100.4572259569882</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="449" t="s">
+        <v>76.634428057291686</v>
+      </c>
+    </row>
+    <row r="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="449" t="s">
+      <c r="B60" s="202" t="s">
         <v>117</v>
       </c>
       <c r="C60">
-        <v>13.30757192287108</v>
+        <v>6.6294464900430778</v>
       </c>
       <c r="D60">
-        <v>2.3398381240787511</v>
+        <v>1.1517981280993883</v>
       </c>
       <c r="E60">
-        <v>10.13571714095923</v>
+        <v>9.8242733835274318</v>
       </c>
       <c r="F60">
-        <v>29.743032086637637</v>
+        <v>6.198294705994865</v>
       </c>
       <c r="G60">
-        <v>46.475986599285349</v>
+        <v>17.275831888605119</v>
       </c>
       <c r="H60">
-        <v>14.226260535572997</v>
+        <v>5.5958490075254064</v>
       </c>
       <c r="I60">
-        <v>-27.778787585806825</v>
+        <v>-17.175166297117517</v>
       </c>
       <c r="J60">
-        <v>92.859832792855983</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="449" t="s">
+        <v>68.657987411494389</v>
+      </c>
+    </row>
+    <row r="61" x14ac:dyDescent="0.25">
+      <c r="A61" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="449" t="s">
+      <c r="B61" s="202" t="s">
         <v>120</v>
       </c>
       <c r="C61">
-        <v>7.4163685164900714</v>
+        <v>3.6329122964841214</v>
       </c>
       <c r="D61">
-        <v>0.75696954420131024</v>
+        <v>0.37723777525353669</v>
       </c>
       <c r="E61">
-        <v>3.7101423396966466</v>
+        <v>4.6277777647492773</v>
       </c>
       <c r="F61">
-        <v>14.154877647699752</v>
+        <v>1.7922899698318555</v>
       </c>
       <c r="G61">
-        <v>29.76011230134284</v>
+        <v>9.5938921875743688</v>
       </c>
       <c r="H61">
-        <v>9.6295862985685883</v>
+        <v>3.8542240806218371</v>
       </c>
       <c r="I61">
-        <v>83.226020367885056</v>
+        <v>1.8685416337494074</v>
       </c>
       <c r="J61">
-        <v>98.606278505580889</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="449" t="s">
+        <v>72.169673823603929</v>
+      </c>
+    </row>
+    <row r="62" x14ac:dyDescent="0.25">
+      <c r="A62" s="202" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="449" t="s">
+      <c r="B62" s="202" t="s">
         <v>122</v>
       </c>
       <c r="C62">
-        <v>14.440751396453802</v>
+        <v>7.0689047118379671</v>
       </c>
       <c r="D62">
-        <v>0.85278213017141047</v>
+        <v>0.50588724140210217</v>
       </c>
       <c r="E62">
-        <v>2.7600056681588372</v>
+        <v>7.1970511436049076</v>
       </c>
       <c r="F62">
-        <v>9.0651207467951149</v>
+        <v>2.2130960301159619</v>
       </c>
       <c r="G62">
-        <v>21.794653870779591</v>
+        <v>11.035451457663175</v>
       </c>
       <c r="H62">
-        <v>7.0468430881771535</v>
+        <v>2.3941231669212906</v>
       </c>
       <c r="I62">
-        <v>2.8595822533922854</v>
+        <v>16.932459216343954</v>
       </c>
       <c r="J62">
-        <v>80.583853832601932</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="449" t="s">
+        <v>32.745828392824507</v>
+      </c>
+    </row>
+    <row r="63" x14ac:dyDescent="0.25">
+      <c r="A63" s="202" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="449" t="s">
+      <c r="B63" s="202" t="s">
         <v>124</v>
       </c>
       <c r="C63">
@@ -3428,43 +3389,43 @@
         <v>92.538763219418158</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="449" t="s">
+    <row r="64" x14ac:dyDescent="0.25">
+      <c r="A64" s="202" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="449" t="s">
+      <c r="B64" s="202" t="s">
         <v>124</v>
       </c>
       <c r="C64">
-        <v>20.131127130983792</v>
+        <v>10.065480454308705</v>
       </c>
       <c r="D64">
-        <v>2.5900857321364366</v>
+        <v>1.2056620197707844</v>
       </c>
       <c r="E64">
-        <v>9.7924487044144204</v>
+        <v>14.113923138241296</v>
       </c>
       <c r="F64">
-        <v>14.29533812848261</v>
+        <v>6.0613012123928671</v>
       </c>
       <c r="G64">
-        <v>31.103494607164187</v>
+        <v>16.547098831881055</v>
       </c>
       <c r="H64">
-        <v>9.7729252978564833</v>
+        <v>4.5210054707506</v>
       </c>
       <c r="I64">
-        <v>47.636551101946125</v>
+        <v>24.01082613738884</v>
       </c>
       <c r="J64">
-        <v>95.614062053391393</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="449" t="s">
+        <v>45.247244201582745</v>
+      </c>
+    </row>
+    <row r="65" x14ac:dyDescent="0.25">
+      <c r="A65" s="202" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="449" t="s">
+      <c r="B65" s="202" t="s">
         <v>127</v>
       </c>
       <c r="C65">
@@ -3492,203 +3453,203 @@
         <v>91.379803444545544</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="449" t="s">
+    <row r="66" x14ac:dyDescent="0.25">
+      <c r="A66" s="202" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="449" t="s">
+      <c r="B66" s="202" t="s">
         <v>129</v>
       </c>
       <c r="C66">
-        <v>9.9735994320293244</v>
+        <v>4.901447859570907</v>
       </c>
       <c r="D66">
-        <v>1.2025626595411427</v>
+        <v>0.59251540610075604</v>
       </c>
       <c r="E66">
-        <v>4.3539100081901996</v>
+        <v>4.7030987372762132</v>
       </c>
       <c r="F66">
-        <v>11.537627168480991</v>
+        <v>2.348699875018982</v>
       </c>
       <c r="G66">
-        <v>22.10303052538643</v>
+        <v>9.049688652623459</v>
       </c>
       <c r="H66">
-        <v>7.3976832400652635</v>
+        <v>2.2163287132513623</v>
       </c>
       <c r="I66">
-        <v>-65.83280291857487</v>
+        <v>-69.412403943180934</v>
       </c>
       <c r="J66">
-        <v>89.385559707553583</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="449" t="s">
+        <v>78.378036393313991</v>
+      </c>
+    </row>
+    <row r="67" x14ac:dyDescent="0.25">
+      <c r="A67" s="202" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="449" t="s">
+      <c r="B67" s="202" t="s">
         <v>129</v>
       </c>
       <c r="C67">
-        <v>15.105767560468452</v>
+        <v>7.4580786912966186</v>
       </c>
       <c r="D67">
-        <v>1.7204725021612031</v>
+        <v>0.73210132784947302</v>
       </c>
       <c r="E67">
-        <v>6.3182426460570245</v>
+        <v>12.799613266223437</v>
       </c>
       <c r="F67">
-        <v>30.136544062033856</v>
+        <v>11.722681755313454</v>
       </c>
       <c r="G67">
-        <v>55.566713677324103</v>
+        <v>23.987822715369049</v>
       </c>
       <c r="H67">
-        <v>17.035448295705113</v>
+        <v>5.2524594668285163</v>
       </c>
       <c r="I67">
-        <v>78.579181242318242</v>
+        <v>38.12658227848101</v>
       </c>
       <c r="J67">
-        <v>105.87416171084175</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="449" t="s">
+        <v>82.030418759330004</v>
+      </c>
+    </row>
+    <row r="68" x14ac:dyDescent="0.25">
+      <c r="A68" s="202" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="449" t="s">
+      <c r="B68" s="202" t="s">
         <v>132</v>
       </c>
       <c r="C68">
-        <v>13.305541754385613</v>
+        <v>6.5271829844655596</v>
       </c>
       <c r="D68">
-        <v>1.2089551841108122</v>
+        <v>0.59946338576652303</v>
       </c>
       <c r="E68">
-        <v>5.2196476933303231</v>
+        <v>8.3731595884489014</v>
       </c>
       <c r="F68">
-        <v>8.2316779863446996</v>
+        <v>2.9169958641546923</v>
       </c>
       <c r="G68">
-        <v>18.990232024327849</v>
+        <v>11.301191728263007</v>
       </c>
       <c r="H68">
-        <v>5.4879819696299776</v>
+        <v>3.0626055330604189</v>
       </c>
       <c r="I68">
-        <v>3.1008811364862434</v>
+        <v>1.3600791580462355</v>
       </c>
       <c r="J68">
-        <v>85.358193011748924</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="449" t="s">
+        <v>31.029098119548273</v>
+      </c>
+    </row>
+    <row r="69" x14ac:dyDescent="0.25">
+      <c r="A69" s="202" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="449" t="s">
+      <c r="B69" s="202" t="s">
         <v>134</v>
       </c>
       <c r="C69">
-        <v>17.081655524800091</v>
+        <v>8.5242599281043976</v>
       </c>
       <c r="D69">
-        <v>2.7519684982132229</v>
+        <v>1.3701393885899289</v>
       </c>
       <c r="E69">
-        <v>13.377881677479728</v>
+        <v>10.622686527175654</v>
       </c>
       <c r="F69">
-        <v>29.22717186392007</v>
+        <v>6.2691156440980684</v>
       </c>
       <c r="G69">
-        <v>57.793822114752402</v>
+        <v>18.206464117775752</v>
       </c>
       <c r="H69">
-        <v>19.863059667569754</v>
+        <v>5.6634452938668307</v>
       </c>
       <c r="I69">
-        <v>62.547766263171646</v>
+        <v>-43.378558036475198</v>
       </c>
       <c r="J69">
-        <v>84.862448284944378</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="449" t="s">
+        <v>75.303946990760807</v>
+      </c>
+    </row>
+    <row r="70" x14ac:dyDescent="0.25">
+      <c r="A70" s="202" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="449" t="s">
+      <c r="B70" s="202" t="s">
         <v>3</v>
       </c>
       <c r="C70">
-        <v>12.808520941283524</v>
+        <v>8.1049024500009637</v>
       </c>
       <c r="D70">
-        <v>4.2626005017622459</v>
+        <v>2.8011508999138184</v>
       </c>
       <c r="E70">
-        <v>6.3494224395067729</v>
+        <v>11.713127964981876</v>
       </c>
       <c r="F70">
-        <v>23.022523759080968</v>
+        <v>8.944089253583499</v>
       </c>
       <c r="G70">
-        <v>48.603931213556244</v>
+        <v>31.921102623598216</v>
       </c>
       <c r="H70">
-        <v>16.613702749871909</v>
+        <v>7.9515360517978957</v>
       </c>
       <c r="I70">
-        <v>29.823996611246425</v>
+        <v>33.928669069218344</v>
       </c>
       <c r="J70">
-        <v>92.828521751557517</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="449" t="s">
+        <v>77.837580388344563</v>
+      </c>
+    </row>
+    <row r="71" x14ac:dyDescent="0.25">
+      <c r="A71" s="202" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="449" t="s">
+      <c r="B71" s="202" t="s">
         <v>3</v>
       </c>
       <c r="C71">
-        <v>19.300368919789708</v>
+        <v>13.760751108060241</v>
       </c>
       <c r="D71">
-        <v>1.8193686902965807</v>
+        <v>1.2933683161379477</v>
       </c>
       <c r="E71">
-        <v>9.979016344881888</v>
+        <v>24.595424576405012</v>
       </c>
       <c r="F71">
-        <v>21.622126869075188</v>
+        <v>9.3733838122201991</v>
       </c>
       <c r="G71">
-        <v>38.625204568213832</v>
+        <v>28.844931780528675</v>
       </c>
       <c r="H71">
-        <v>11.392107551081116</v>
+        <v>5.4745653640516609</v>
       </c>
       <c r="I71">
-        <v>-15.825403392635499</v>
+        <v>-22.204061895551256</v>
       </c>
       <c r="J71">
-        <v>78.624251630377984</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="449" t="s">
+        <v>49.708071043917158</v>
+      </c>
+    </row>
+    <row r="72" x14ac:dyDescent="0.25">
+      <c r="A72" s="202" t="s">
         <v>137</v>
       </c>
-      <c r="B72" s="449" t="s">
+      <c r="B72" s="202" t="s">
         <v>138</v>
       </c>
       <c r="C72">
@@ -3716,43 +3677,43 @@
         <v>69.703015039607394</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="449" t="s">
+    <row r="73" x14ac:dyDescent="0.25">
+      <c r="A73" s="202" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="449" t="s">
+      <c r="B73" s="202" t="s">
         <v>140</v>
       </c>
       <c r="C73">
-        <v>29.205383642611686</v>
+        <v>15.659772214013982</v>
       </c>
       <c r="D73">
-        <v>3.9481056290724164</v>
+        <v>2.006032472473708</v>
       </c>
       <c r="E73">
-        <v>10.725550795430175</v>
+        <v>20.514773777555515</v>
       </c>
       <c r="F73">
-        <v>25.13346345312101</v>
+        <v>13.073840412803541</v>
       </c>
       <c r="G73">
-        <v>49.506222902205359</v>
+        <v>31.166498685964797</v>
       </c>
       <c r="H73">
-        <v>14.519201587419666</v>
+        <v>12.74775850707209</v>
       </c>
       <c r="I73">
-        <v>-27.630345558056401</v>
+        <v>3.9858341099720409</v>
       </c>
       <c r="J73">
-        <v>89.606100060256111</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="449" t="s">
+        <v>53.463178983025266</v>
+      </c>
+    </row>
+    <row r="74" x14ac:dyDescent="0.25">
+      <c r="A74" s="202" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="449" t="s">
+      <c r="B74" s="202" t="s">
         <v>142</v>
       </c>
       <c r="C74">
@@ -3780,11 +3741,11 @@
         <v>86.8031956420824</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="449" t="s">
+    <row r="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="202" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="449" t="s">
+      <c r="B75" s="202" t="s">
         <v>144</v>
       </c>
       <c r="C75">
@@ -3812,11 +3773,11 @@
         <v>99.346451467464817</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="449" t="s">
+    <row r="76" x14ac:dyDescent="0.25">
+      <c r="A76" s="202" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="449" t="s">
+      <c r="B76" s="202" t="s">
         <v>146</v>
       </c>
       <c r="C76">
@@ -3844,6 +3805,874 @@
         <v>83.904632342010061</v>
       </c>
     </row>
+    <row r="77" x14ac:dyDescent="0.25">
+      <c r="A77" s="202" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" s="202" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77">
+        <v>2326.8133686963038</v>
+      </c>
+      <c r="D77">
+        <v>1035.2099798890863</v>
+      </c>
+      <c r="E77">
+        <v>22.787941695265605</v>
+      </c>
+      <c r="F77">
+        <v>42.431114474781147</v>
+      </c>
+      <c r="G77">
+        <v>188.96171815819093</v>
+      </c>
+      <c r="H77">
+        <v>123.35806860249025</v>
+      </c>
+      <c r="I77">
+        <v>-164.0466472303207</v>
+      </c>
+      <c r="J77">
+        <v>99.78767502290502</v>
+      </c>
+    </row>
+    <row r="78" x14ac:dyDescent="0.25">
+      <c r="A78" s="202" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="202" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78">
+        <v>11.838423878197915</v>
+      </c>
+      <c r="D78">
+        <v>0.83785042177185642</v>
+      </c>
+      <c r="E78">
+        <v>20.248611248523343</v>
+      </c>
+      <c r="F78">
+        <v>8.5113785968317917</v>
+      </c>
+      <c r="G78">
+        <v>23.702487897335562</v>
+      </c>
+      <c r="H78">
+        <v>5.6204268945804303</v>
+      </c>
+      <c r="I78">
+        <v>-4.3424947145877377</v>
+      </c>
+      <c r="J78">
+        <v>32.082666051787875</v>
+      </c>
+    </row>
+    <row r="79" x14ac:dyDescent="0.25">
+      <c r="A79" s="202" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" s="202" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79">
+        <v>10.261531863891836</v>
+      </c>
+      <c r="D79">
+        <v>0.90486610541442403</v>
+      </c>
+      <c r="E79">
+        <v>11.566442264368765</v>
+      </c>
+      <c r="F79">
+        <v>6.1871719975848691</v>
+      </c>
+      <c r="G79">
+        <v>18.281846991539194</v>
+      </c>
+      <c r="H79">
+        <v>4.7518908072175403</v>
+      </c>
+      <c r="I79">
+        <v>0.044073455759599332</v>
+      </c>
+      <c r="J79">
+        <v>38.95052251564713</v>
+      </c>
+    </row>
+    <row r="80" x14ac:dyDescent="0.25">
+      <c r="A80" s="202" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" s="202" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80">
+        <v>8.955743225186481</v>
+      </c>
+      <c r="D80">
+        <v>0.53099507258824707</v>
+      </c>
+      <c r="E80">
+        <v>9.3166209477494704</v>
+      </c>
+      <c r="F80">
+        <v>5.3530253542158768</v>
+      </c>
+      <c r="G80">
+        <v>14.440745440872776</v>
+      </c>
+      <c r="H80">
+        <v>4.4932975974773361</v>
+      </c>
+      <c r="I80">
+        <v>-11.890146060481383</v>
+      </c>
+      <c r="J80">
+        <v>38.914087563278144</v>
+      </c>
+    </row>
+    <row r="81" x14ac:dyDescent="0.25">
+      <c r="A81" s="202" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" s="202" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81">
+        <v>6.1072660889856918</v>
+      </c>
+      <c r="D81">
+        <v>1.0113559856047125</v>
+      </c>
+      <c r="E81">
+        <v>8.105663556118941</v>
+      </c>
+      <c r="F81">
+        <v>6.024117597383059</v>
+      </c>
+      <c r="G81">
+        <v>14.22477564039894</v>
+      </c>
+      <c r="H81">
+        <v>2.6621543341003973</v>
+      </c>
+      <c r="I81">
+        <v>-31.810614582268126</v>
+      </c>
+      <c r="J81">
+        <v>59.577088379920617</v>
+      </c>
+    </row>
+    <row r="82" x14ac:dyDescent="0.25">
+      <c r="A82" s="202" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="202" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82">
+        <v>10.645637807360112</v>
+      </c>
+      <c r="D82">
+        <v>0.76816360099396541</v>
+      </c>
+      <c r="E82">
+        <v>14.331988909627315</v>
+      </c>
+      <c r="F82">
+        <v>7.2920398267284758</v>
+      </c>
+      <c r="G82">
+        <v>17.644930555083896</v>
+      </c>
+      <c r="H82">
+        <v>6.3315198863545756</v>
+      </c>
+      <c r="I82">
+        <v>1.0839875255403806</v>
+      </c>
+      <c r="J82">
+        <v>52.490941362462557</v>
+      </c>
+    </row>
+    <row r="83" x14ac:dyDescent="0.25">
+      <c r="A83" s="202" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="202" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83">
+        <v>10.696148326722216</v>
+      </c>
+      <c r="D83">
+        <v>0.86895996378103413</v>
+      </c>
+      <c r="E83">
+        <v>12.935627753898526</v>
+      </c>
+      <c r="F83">
+        <v>6.3703943627684039</v>
+      </c>
+      <c r="G83">
+        <v>16.348774656182112</v>
+      </c>
+      <c r="H83">
+        <v>4.2377136500491854</v>
+      </c>
+      <c r="I83">
+        <v>35.406535178098324</v>
+      </c>
+      <c r="J83">
+        <v>52.871596664180807</v>
+      </c>
+    </row>
+    <row r="84" x14ac:dyDescent="0.25">
+      <c r="A84" s="202" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" s="202" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84">
+        <v>13.049626910001738</v>
+      </c>
+      <c r="D84">
+        <v>1.2466733987645953</v>
+      </c>
+      <c r="E84">
+        <v>20.777447927603141</v>
+      </c>
+      <c r="F84">
+        <v>12.334943898164459</v>
+      </c>
+      <c r="G84">
+        <v>23.64851842662824</v>
+      </c>
+      <c r="H84">
+        <v>7.4346590345849943</v>
+      </c>
+      <c r="I84">
+        <v>-2.7298136645962732</v>
+      </c>
+      <c r="J84">
+        <v>40.313376828994301</v>
+      </c>
+    </row>
+    <row r="85" x14ac:dyDescent="0.25">
+      <c r="A85" s="202" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="202" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85">
+        <v>8.7862530804906793</v>
+      </c>
+      <c r="D85">
+        <v>0.52546981774875978</v>
+      </c>
+      <c r="E85">
+        <v>12.301883744706508</v>
+      </c>
+      <c r="F85">
+        <v>11.872871265159901</v>
+      </c>
+      <c r="G85">
+        <v>23.47680534189022</v>
+      </c>
+      <c r="H85">
+        <v>6.6118608819961242</v>
+      </c>
+      <c r="I85">
+        <v>25.724035608308604</v>
+      </c>
+      <c r="J85">
+        <v>58.480901438763098</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="202" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" s="202" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86">
+        <v>12.734044905249526</v>
+      </c>
+      <c r="D86">
+        <v>1.4568032821313359</v>
+      </c>
+      <c r="E86">
+        <v>16.512726766749264</v>
+      </c>
+      <c r="F86">
+        <v>6.3718572287341289</v>
+      </c>
+      <c r="G86">
+        <v>20.575303905640105</v>
+      </c>
+      <c r="H86">
+        <v>5.3525059648715487</v>
+      </c>
+      <c r="I86">
+        <v>-4.3894533762057879</v>
+      </c>
+      <c r="J86">
+        <v>41.707504319237778</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="202" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" s="202" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87">
+        <v>3.3850661123385515</v>
+      </c>
+      <c r="D87">
+        <v>1.3055753875816294</v>
+      </c>
+      <c r="E87">
+        <v>8.7299894741807513</v>
+      </c>
+      <c r="F87">
+        <v>3.6787559537772148</v>
+      </c>
+      <c r="G87">
+        <v>11.614192719728614</v>
+      </c>
+      <c r="H87">
+        <v>3.3407236172417045</v>
+      </c>
+      <c r="I87">
+        <v>25.293118594436311</v>
+      </c>
+      <c r="J87">
+        <v>84.359111308518408</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" s="202" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88">
+        <v>3.7943319852719677</v>
+      </c>
+      <c r="D88">
+        <v>0.35015400317535961</v>
+      </c>
+      <c r="E88">
+        <v>3.4781864168318748</v>
+      </c>
+      <c r="F88">
+        <v>3.6632271027266694</v>
+      </c>
+      <c r="G88">
+        <v>15.194412705752081</v>
+      </c>
+      <c r="H88">
+        <v>6.7553388965670162</v>
+      </c>
+      <c r="I88">
+        <v>-52.604463255098118</v>
+      </c>
+      <c r="J88">
+        <v>87.065673549453649</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="202" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="202" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89">
+        <v>10.516296597282613</v>
+      </c>
+      <c r="D89">
+        <v>2.9097240198816694</v>
+      </c>
+      <c r="E89">
+        <v>12.495899712023967</v>
+      </c>
+      <c r="F89">
+        <v>7.6143114648903527</v>
+      </c>
+      <c r="G89">
+        <v>19.101773267910492</v>
+      </c>
+      <c r="H89">
+        <v>6.4734694301368814</v>
+      </c>
+      <c r="I89">
+        <v>4.2700484893696382</v>
+      </c>
+      <c r="J89">
+        <v>52.534674284685877</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="202" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" s="202" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90">
+        <v>8.0897693131425452</v>
+      </c>
+      <c r="D90">
+        <v>1.0289604238019554</v>
+      </c>
+      <c r="E90">
+        <v>8.9544941305590271</v>
+      </c>
+      <c r="F90">
+        <v>4.2093829828955958</v>
+      </c>
+      <c r="G90">
+        <v>11.651538026329243</v>
+      </c>
+      <c r="H90">
+        <v>3.9871842198288387</v>
+      </c>
+      <c r="I90">
+        <v>5.5168655454289208</v>
+      </c>
+      <c r="J90">
+        <v>39.998148475560669</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" s="202" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91">
+        <v>5.8131903016113213</v>
+      </c>
+      <c r="D91">
+        <v>0.78495698313930307</v>
+      </c>
+      <c r="E91">
+        <v>5.2086010883215836</v>
+      </c>
+      <c r="F91">
+        <v>2.7026071459436207</v>
+      </c>
+      <c r="G91">
+        <v>11.179989104935981</v>
+      </c>
+      <c r="H91">
+        <v>2.9019827749470521</v>
+      </c>
+      <c r="I91">
+        <v>12.41445955619184</v>
+      </c>
+      <c r="J91">
+        <v>42.349345455275092</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="202" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" s="202" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92">
+        <v>8.1774620942852714</v>
+      </c>
+      <c r="D92">
+        <v>0.36421232305045625</v>
+      </c>
+      <c r="E92">
+        <v>8.688456411375304</v>
+      </c>
+      <c r="F92">
+        <v>4.6415856097388541</v>
+      </c>
+      <c r="G92">
+        <v>12.204666770427455</v>
+      </c>
+      <c r="H92">
+        <v>4.8481761659913074</v>
+      </c>
+      <c r="I92">
+        <v>-35.093029193973955</v>
+      </c>
+      <c r="J92">
+        <v>41.617679734955921</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" s="202" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93">
+        <v>7.4571858169553789</v>
+      </c>
+      <c r="D93">
+        <v>0.81801406926667586</v>
+      </c>
+      <c r="E93">
+        <v>7.0691787464282463</v>
+      </c>
+      <c r="F93">
+        <v>5.0529694758666848</v>
+      </c>
+      <c r="G93">
+        <v>11.998257187185214</v>
+      </c>
+      <c r="H93">
+        <v>6.4078037536462276</v>
+      </c>
+      <c r="I93">
+        <v>-11.881084232002332</v>
+      </c>
+      <c r="J93">
+        <v>53.033980013354174</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="202" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" s="202" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94">
+        <v>3.3475205277699143</v>
+      </c>
+      <c r="D94">
+        <v>0.59636001770252201</v>
+      </c>
+      <c r="E94">
+        <v>4.3485861388531202</v>
+      </c>
+      <c r="F94">
+        <v>2.3360164432434463</v>
+      </c>
+      <c r="G94">
+        <v>8.5791557949694077</v>
+      </c>
+      <c r="H94">
+        <v>2.6146872257763363</v>
+      </c>
+      <c r="I94">
+        <v>-27.888229829200313</v>
+      </c>
+      <c r="J94">
+        <v>72.78212255490385</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="202" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" s="202" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95">
+        <v>8.480989416792541</v>
+      </c>
+      <c r="D95">
+        <v>1.1032853353125966</v>
+      </c>
+      <c r="E95">
+        <v>7.5867320606533299</v>
+      </c>
+      <c r="F95">
+        <v>4.7305794029810544</v>
+      </c>
+      <c r="G95">
+        <v>11.632420098959043</v>
+      </c>
+      <c r="H95">
+        <v>4.2069422536105776</v>
+      </c>
+      <c r="I95">
+        <v>-8.7135999999999996</v>
+      </c>
+      <c r="J95">
+        <v>63.830125596780661</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="202" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96">
+        <v>7.4409723386468656</v>
+      </c>
+      <c r="D96">
+        <v>0.51373183078143259</v>
+      </c>
+      <c r="E96">
+        <v>7.3587147014961545</v>
+      </c>
+      <c r="F96">
+        <v>5.4286638851898568</v>
+      </c>
+      <c r="G96">
+        <v>11.716896994966646</v>
+      </c>
+      <c r="H96">
+        <v>5.8888130767433147</v>
+      </c>
+      <c r="I96">
+        <v>-20.344209261484426</v>
+      </c>
+      <c r="J96">
+        <v>47.853614296610083</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="202" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97">
+        <v>7.0491629599468881</v>
+      </c>
+      <c r="D97">
+        <v>0.41777690551528257</v>
+      </c>
+      <c r="E97">
+        <v>9.2605530370212659</v>
+      </c>
+      <c r="F97">
+        <v>4.439934622918102</v>
+      </c>
+      <c r="G97">
+        <v>12.255370097718927</v>
+      </c>
+      <c r="H97">
+        <v>4.0370178707520852</v>
+      </c>
+      <c r="I97">
+        <v>16.735868448098664</v>
+      </c>
+      <c r="J97">
+        <v>44.668549994144527</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="202" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98">
+        <v>5.0127307575593294</v>
+      </c>
+      <c r="D98">
+        <v>0.65793706664247109</v>
+      </c>
+      <c r="E98">
+        <v>6.1464000015243823</v>
+      </c>
+      <c r="F98">
+        <v>4.2108327308133759</v>
+      </c>
+      <c r="G98">
+        <v>11.84040812740999</v>
+      </c>
+      <c r="H98">
+        <v>4.0797065879349752</v>
+      </c>
+      <c r="I98">
+        <v>20.653594771241831</v>
+      </c>
+      <c r="J98">
+        <v>56.412975426115018</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" s="202" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99">
+        <v>16.011564257767702</v>
+      </c>
+      <c r="D99">
+        <v>1.6921210563848603</v>
+      </c>
+      <c r="E99">
+        <v>22.496979005058002</v>
+      </c>
+      <c r="F99">
+        <v>11.215578123772659</v>
+      </c>
+      <c r="G99">
+        <v>29.562782054743554</v>
+      </c>
+      <c r="H99">
+        <v>7.8678684305149877</v>
+      </c>
+      <c r="I99">
+        <v>30.626200061938679</v>
+      </c>
+      <c r="J99">
+        <v>42.747001352880588</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="202" t="s">
+        <v>183</v>
+      </c>
+      <c r="B100" s="202" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100">
+        <v>8.6525821866409398</v>
+      </c>
+      <c r="D100">
+        <v>0.78278224407973362</v>
+      </c>
+      <c r="E100">
+        <v>12.826986103558554</v>
+      </c>
+      <c r="F100">
+        <v>10.643895548860156</v>
+      </c>
+      <c r="G100">
+        <v>21.844021990515117</v>
+      </c>
+      <c r="H100">
+        <v>4.7690027589463915</v>
+      </c>
+      <c r="I100">
+        <v>20.549192928516526</v>
+      </c>
+      <c r="J100">
+        <v>51.432248077729817</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="202" t="s">
+        <v>185</v>
+      </c>
+      <c r="B101" s="202" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101">
+        <v>5.1703630326436221</v>
+      </c>
+      <c r="D101">
+        <v>0.65088124024621785</v>
+      </c>
+      <c r="E101">
+        <v>4.5480860324851689</v>
+      </c>
+      <c r="F101">
+        <v>2.9656099277331522</v>
+      </c>
+      <c r="G101">
+        <v>10.414403375614022</v>
+      </c>
+      <c r="H101">
+        <v>2.6704010208506777</v>
+      </c>
+      <c r="I101">
+        <v>16.681651723702487</v>
+      </c>
+      <c r="J101">
+        <v>48.511795055618627</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="202" t="s">
+        <v>187</v>
+      </c>
+      <c r="B102" s="202" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102">
+        <v>6.5857407125525151</v>
+      </c>
+      <c r="D102">
+        <v>0.75231660879319129</v>
+      </c>
+      <c r="E102">
+        <v>9.3682448824506839</v>
+      </c>
+      <c r="F102">
+        <v>3.199229823744818</v>
+      </c>
+      <c r="G102">
+        <v>11.196446932685467</v>
+      </c>
+      <c r="H102">
+        <v>2.9066268891374989</v>
+      </c>
+      <c r="I102">
+        <v>-16.169813533481882</v>
+      </c>
+      <c r="J102">
+        <v>34.268814441258662</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="202" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" s="202" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103">
+        <v>11.705042797686939</v>
+      </c>
+      <c r="D103">
+        <v>1.4669818701910868</v>
+      </c>
+      <c r="E103">
+        <v>12.579825509046666</v>
+      </c>
+      <c r="F103">
+        <v>13.838217963878384</v>
+      </c>
+      <c r="G103">
+        <v>25.568961457350557</v>
+      </c>
+      <c r="H103">
+        <v>7.053619307426219</v>
+      </c>
+      <c r="I103">
+        <v>-5.9359079704190636</v>
+      </c>
+      <c r="J103">
+        <v>44.884795241234229</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:J85">
+    <sortCondition ref="A2:A85"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>